--- a/2019 Deployment Schedule April-December.xlsx
+++ b/2019 Deployment Schedule April-December.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maura Vitelli\Documents\Salesforce DTC\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A15D38B-0090-4FA1-A6C2-A57BF0C70086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25DBCE-5116-4090-9542-1D5A052DC034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="788" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Dates" sheetId="15" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="128">
   <si>
     <t>Notes:</t>
   </si>
@@ -618,9 +618,6 @@
     <t>DTC Review Period</t>
   </si>
   <si>
-    <t xml:space="preserve">The first deployment attempt to Staging will begin at 11AM EST on Monday. If there are no issues with the deployment, DTC anticipates changes will be available for testing/training by 12PM EST Tuesday. Be advised, any conflicts within the package that cause the deployment to fail could push the ready time back. A Chatter update will be posted when Staging is available. </t>
-  </si>
-  <si>
     <t>Following collection of UAT changes for re-deployment (one re-deployment attempt), code freeze will be in effect. Your changes will be deployed to UAT then you will have a few days to finalize business owner sign off. Your package will then be deployed to Staging and teams given the opportunity to validate, though no additional changes may be made. If at this point you determine you are not ready for Production, your package may be pulled from the release and pushed to the next month.</t>
   </si>
   <si>
@@ -735,6 +732,15 @@
   </si>
   <si>
     <t>DTC will be reviewing your package components and pre- and post-deployment steps in this period. If we are unable to complete steps they will be returned to you with questions. This will also allow time for the deployment team to resolve any build errors. If you change your deployment plan after this date, there is no guarantee it will be completed (unless submitted with one of the two redeployment requests), the original deployment plan (or lack thereof) will be used for the first deployment, please abide by the submission deadline for build completion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first deployment attempt to Staging will begin at 11AM EST on Monday. If there are no issues with the deployment, DTC anticipates changes will be available for testing/training by 2PM EST Tuesday. Be advised, any conflicts within the package that cause the deployment to fail could push the ready time back. A Chatter update will be posted when Staging is available. </t>
+  </si>
+  <si>
+    <t>Case for Re-Deployment (of fixes)to UAT must be submitted by 3PM</t>
+  </si>
+  <si>
+    <t>Code freeze - Begins 3PM Wednesday - No additional changes will be accepted</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1532,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
@@ -1598,6 +1604,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1616,11 +1628,8 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1630,9 +1639,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1665,7 +1671,12 @@
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="338">
+  <dxfs count="339">
+    <dxf>
+      <font>
+        <color rgb="FF747474"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF747474"/>
@@ -3670,13 +3681,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3703,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
@@ -3700,7 +3711,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>21</v>
       </c>
@@ -3708,7 +3719,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>22</v>
       </c>
@@ -3716,7 +3727,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>23</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>24</v>
       </c>
@@ -3732,7 +3743,7 @@
         <v>43643</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="53" t="s">
         <v>25</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>2</v>
       </c>
@@ -3748,7 +3759,7 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>26</v>
       </c>
@@ -3756,7 +3767,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>27</v>
       </c>
@@ -3764,7 +3775,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>28</v>
       </c>
@@ -3772,7 +3783,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>29</v>
       </c>
@@ -3793,18 +3804,18 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.08203125" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2019</v>
@@ -3819,7 +3830,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -3849,7 +3860,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43675</v>
@@ -3873,13 +3884,13 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="23" t="s">
         <v>45</v>
       </c>
@@ -3890,13 +3901,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3907,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43682</v>
@@ -3931,7 +3942,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
         <v>102</v>
@@ -3949,7 +3960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43689</v>
@@ -3973,7 +3984,7 @@
         <v>43695</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
         <v>113</v>
       </c>
@@ -3983,7 +3994,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
@@ -3992,7 +4003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43696</v>
@@ -4016,7 +4027,7 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
       <c r="B11" s="78"/>
       <c r="C11" s="26" t="s">
@@ -4037,7 +4048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="26"/>
@@ -4052,7 +4063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="array" ref="A13:G13">Days+29+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43703</v>
@@ -4076,8 +4087,8 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="98" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:10" ht="99.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -4099,12 +4110,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
-      <c r="B15" s="94" t="s">
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="89"/>
+      <c r="B15" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="25"/>
       <c r="E15" s="22" t="s">
         <v>43</v>
@@ -4112,10 +4123,10 @@
       <c r="F15" s="101"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
+    <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="90"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="23" t="s">
         <v>64</v>
       </c>
@@ -4129,7 +4140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43710</v>
@@ -4137,13 +4148,13 @@
       <c r="B17" s="4">
         <v>43711</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -4158,6 +4169,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="F11:G12"/>
     <mergeCell ref="A11:A12"/>
@@ -4165,156 +4183,149 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B15:C16"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A10:G10 A13:G13 A17:B17 G14:G15 A3:G3 F4:G4">
-    <cfRule type="expression" dxfId="133" priority="38">
+    <cfRule type="expression" dxfId="134" priority="38">
       <formula>MONTH(A3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="132" priority="37">
+    <cfRule type="expression" dxfId="133" priority="37">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="131" priority="36">
+    <cfRule type="expression" dxfId="132" priority="36">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="130" priority="25">
+    <cfRule type="expression" dxfId="131" priority="25">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="129" priority="33">
+    <cfRule type="expression" dxfId="130" priority="33">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="128" priority="32">
+    <cfRule type="expression" dxfId="129" priority="32">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="127" priority="28">
+    <cfRule type="expression" dxfId="128" priority="28">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="126" priority="30">
+    <cfRule type="expression" dxfId="127" priority="30">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="125" priority="29">
+    <cfRule type="expression" dxfId="126" priority="29">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="124" priority="23">
+    <cfRule type="expression" dxfId="125" priority="23">
       <formula>MONTH(A18)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="123" priority="22">
+    <cfRule type="expression" dxfId="124" priority="22">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="122" priority="21">
+    <cfRule type="expression" dxfId="123" priority="21">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="121" priority="20">
+    <cfRule type="expression" dxfId="122" priority="20">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 E4">
-    <cfRule type="expression" dxfId="120" priority="19">
+    <cfRule type="expression" dxfId="121" priority="19">
       <formula>MONTH(A4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="119" priority="16">
+    <cfRule type="expression" dxfId="120" priority="16">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="118" priority="18">
+    <cfRule type="expression" dxfId="119" priority="18">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="118" priority="17">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="116" priority="15">
+    <cfRule type="expression" dxfId="117" priority="15">
       <formula>MONTH(A4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="115" priority="14">
+    <cfRule type="expression" dxfId="116" priority="14">
       <formula>MONTH(A4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="114" priority="13">
+    <cfRule type="expression" dxfId="115" priority="13">
       <formula>MONTH(A4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="113" priority="11">
+    <cfRule type="expression" dxfId="114" priority="11">
       <formula>MONTH(B4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="112" priority="10">
+    <cfRule type="expression" dxfId="113" priority="10">
       <formula>MONTH(C4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="111" priority="9">
+    <cfRule type="expression" dxfId="112" priority="9">
       <formula>MONTH(D4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="110" priority="7">
+    <cfRule type="expression" dxfId="111" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="109" priority="5">
+    <cfRule type="expression" dxfId="110" priority="5">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="108" priority="4">
+    <cfRule type="expression" dxfId="109" priority="4">
       <formula>MONTH(C7)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="107" priority="3">
+    <cfRule type="expression" dxfId="108" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="106" priority="2">
+    <cfRule type="expression" dxfId="107" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="106" priority="1">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4331,22 +4342,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE516C1-600A-4375-BFD6-3CAC1508078C}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" customWidth="1"/>
-    <col min="4" max="4" width="23.08203125" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
     <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="23.9140625" customWidth="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2019</v>
@@ -4361,7 +4372,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -4391,7 +4402,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43703</v>
@@ -4415,7 +4426,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
@@ -4436,7 +4447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="24"/>
@@ -4451,7 +4462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -4462,7 +4473,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43710</v>
@@ -4490,7 +4501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -4510,14 +4521,14 @@
       <c r="G8" s="29"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+15+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43717</v>
@@ -4545,7 +4556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87" t="s">
         <v>113</v>
       </c>
@@ -4555,12 +4566,12 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="array" ref="A12:G12">Days+22+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43724</v>
@@ -4588,7 +4599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78"/>
       <c r="B13" s="78"/>
       <c r="C13" s="26" t="s">
@@ -4609,7 +4620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="26"/>
@@ -4620,7 +4631,7 @@
       <c r="F14" s="70"/>
       <c r="G14" s="71"/>
     </row>
-    <row r="15" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="array" ref="A15:G15">Days+29+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43731</v>
@@ -4648,8 +4659,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="95" t="s">
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -4671,12 +4682,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="A17" s="95"/>
-      <c r="B17" s="94" t="s">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
+      <c r="B17" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="25"/>
       <c r="E17" s="22" t="s">
         <v>43</v>
@@ -4684,10 +4695,10 @@
       <c r="F17" s="75"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="96"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
+    <row r="18" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="23" t="s">
         <v>66</v>
       </c>
@@ -4697,7 +4708,7 @@
       <c r="F18" s="76"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="array" ref="A19:B19">Days+36+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43738</v>
@@ -4705,13 +4716,13 @@
       <c r="B19" s="11">
         <v>43739</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
     </row>
-    <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>67</v>
       </c>
@@ -4737,152 +4748,152 @@
     <mergeCell ref="B17:C18"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G7 A10:G10 A12:G12 A15:G15 F16:G16 A19:B19 A3:G3 G17 A8:B8 F8:G8 D8">
-    <cfRule type="expression" dxfId="104" priority="39">
+    <cfRule type="expression" dxfId="105" priority="39">
       <formula>MONTH(A3)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="103" priority="38">
+    <cfRule type="expression" dxfId="104" priority="38">
       <formula>MONTH(A8)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="102" priority="37">
+    <cfRule type="expression" dxfId="103" priority="37">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="101" priority="36">
+    <cfRule type="expression" dxfId="102" priority="36">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="100" priority="25">
+    <cfRule type="expression" dxfId="101" priority="25">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16">
-    <cfRule type="expression" dxfId="99" priority="33">
+    <cfRule type="expression" dxfId="100" priority="33">
       <formula>MONTH(C16)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="98" priority="32">
+    <cfRule type="expression" dxfId="99" priority="32">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="97" priority="28">
+    <cfRule type="expression" dxfId="98" priority="28">
       <formula>MONTH(E17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="96" priority="30">
+    <cfRule type="expression" dxfId="97" priority="30">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="95" priority="29">
+    <cfRule type="expression" dxfId="96" priority="29">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="94" priority="20">
+    <cfRule type="expression" dxfId="95" priority="20">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="93" priority="15">
+    <cfRule type="expression" dxfId="94" priority="15">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="92" priority="23">
+    <cfRule type="expression" dxfId="93" priority="23">
       <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="91" priority="22">
+    <cfRule type="expression" dxfId="92" priority="22">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="90" priority="21">
+    <cfRule type="expression" dxfId="91" priority="21">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="89" priority="18">
+    <cfRule type="expression" dxfId="90" priority="18">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="88" priority="19">
+    <cfRule type="expression" dxfId="89" priority="19">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="87" priority="17">
+    <cfRule type="expression" dxfId="88" priority="17">
       <formula>MONTH(A5)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="86" priority="16">
+    <cfRule type="expression" dxfId="87" priority="16">
       <formula>MONTH(C5)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="85" priority="14">
+    <cfRule type="expression" dxfId="86" priority="14">
       <formula>MONTH(D18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="84" priority="13">
+    <cfRule type="expression" dxfId="85" priority="13">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="83" priority="12">
+    <cfRule type="expression" dxfId="84" priority="12">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="82" priority="9">
+    <cfRule type="expression" dxfId="83" priority="9">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="81" priority="7">
+    <cfRule type="expression" dxfId="82" priority="7">
       <formula>MONTH(B9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="80" priority="6">
+    <cfRule type="expression" dxfId="81" priority="6">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="79" priority="5">
+    <cfRule type="expression" dxfId="80" priority="5">
       <formula>MONTH(C8)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="79" priority="4">
       <formula>MONTH(E18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="78" priority="3">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>MONTH(C13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4899,22 +4910,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64C0B33-3B5B-4BBC-B7A4-7F784AEAD902}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" customWidth="1"/>
-    <col min="2" max="2" width="24.9140625" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" customWidth="1"/>
-    <col min="4" max="4" width="25.4140625" customWidth="1"/>
-    <col min="5" max="5" width="25.9140625" customWidth="1"/>
-    <col min="6" max="6" width="21.9140625" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2019</v>
@@ -4929,7 +4940,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -4959,7 +4970,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43738</v>
@@ -4983,7 +4994,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>67</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43745</v>
@@ -5032,7 +5043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
         <v>113</v>
       </c>
@@ -5042,16 +5053,16 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43752</v>
@@ -5079,16 +5090,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="26" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>39</v>
@@ -5098,7 +5109,7 @@
       </c>
       <c r="G8" s="69"/>
     </row>
-    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="79"/>
       <c r="C9" s="26"/>
@@ -5113,7 +5124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43759</v>
@@ -5137,8 +5148,8 @@
         <v>43765</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -5160,12 +5171,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
-      <c r="B12" s="94" t="s">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
+      <c r="B12" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="95"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="25"/>
       <c r="E12" s="22" t="s">
         <v>43</v>
@@ -5177,10 +5188,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
       <c r="B13" s="103"/>
-      <c r="C13" s="96"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="23" t="s">
         <v>68</v>
       </c>
@@ -5190,7 +5201,7 @@
       <c r="F13" s="104"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43766</v>
@@ -5218,7 +5229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>69</v>
       </c>
@@ -5230,7 +5241,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
@@ -5251,58 +5262,58 @@
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 F11:G11 G12 A3:G3 A14:G14">
+    <cfRule type="expression" dxfId="75" priority="32">
+      <formula>MONTH(A3)&lt;&gt;Calendar10MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="74" priority="31">
-      <formula>MONTH(A3)&lt;&gt;Calendar10MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+      <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="73" priority="30">
-      <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="72" priority="29">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="71" priority="18">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="71" priority="27">
+      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="70" priority="26">
-      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="69" priority="25">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="68" priority="21">
+    <cfRule type="expression" dxfId="69" priority="22">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="expression" dxfId="68" priority="24">
+      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
     <cfRule type="expression" dxfId="67" priority="23">
-      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="66" priority="22">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="65" priority="16">
-      <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
+      <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="64" priority="15">
-      <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
+      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
@@ -5310,59 +5321,59 @@
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="62" priority="13">
-      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="62" priority="12">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="61" priority="10">
+      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="60" priority="9">
-      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+      <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
     <cfRule type="expression" dxfId="59" priority="8">
-      <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+      <formula>MONTH(C15)&lt;&gt;Calendar5MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="58" priority="7">
-      <formula>MONTH(C15)&lt;&gt;Calendar5MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+      <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="expression" dxfId="57" priority="6">
-      <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+      <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="expression" dxfId="56" priority="5">
-      <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="55" priority="4">
-      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+      <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="54" priority="3">
-      <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>MONTH(G6)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="53" priority="2">
-      <formula>MONTH(G6)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="52" priority="1">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5378,22 +5389,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36EA52E-6383-4F2F-84FB-ABEA442AA77A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" customWidth="1"/>
-    <col min="4" max="4" width="21.58203125" customWidth="1"/>
-    <col min="5" max="5" width="25.9140625" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2019</v>
@@ -5408,7 +5419,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -5438,7 +5449,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43766</v>
@@ -5462,7 +5473,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>69</v>
       </c>
@@ -5483,7 +5494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43773</v>
@@ -5511,7 +5522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="87" t="s">
         <v>113</v>
       </c>
@@ -5521,12 +5532,12 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43780</v>
@@ -5554,7 +5565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +5584,7 @@
       </c>
       <c r="G8" s="69"/>
     </row>
-    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="79"/>
       <c r="C9" s="26"/>
@@ -5588,7 +5599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43787</v>
@@ -5612,8 +5623,8 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A11" s="95" t="s">
+    <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -5635,12 +5646,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
-      <c r="B12" s="94" t="s">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="89"/>
+      <c r="B12" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="95"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="25"/>
       <c r="E12" s="22" t="s">
         <v>43</v>
@@ -5652,10 +5663,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
       <c r="B13" s="103"/>
-      <c r="C13" s="96"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="23" t="s">
         <v>70</v>
       </c>
@@ -5665,7 +5676,7 @@
       <c r="F13" s="104"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43794</v>
@@ -5693,7 +5704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>71</v>
       </c>
@@ -5705,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="29"/>
@@ -5714,7 +5725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="C16" s="32"/>
       <c r="D16" s="10"/>
@@ -5724,7 +5735,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43801</v>
@@ -5732,13 +5743,13 @@
       <c r="B17" s="11">
         <v>43802</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="73"/>
@@ -5749,90 +5760,90 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 A14:G14 F11:G11 F15:G15 A17:B17 A3:G3 G12">
+    <cfRule type="expression" dxfId="52" priority="34">
+      <formula>MONTH(A3)&lt;&gt;Calendar11MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="expression" dxfId="51" priority="33">
-      <formula>MONTH(A3)&lt;&gt;Calendar11MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+      <formula>MONTH(A8)&lt;&gt;Calendar11MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="50" priority="32">
-      <formula>MONTH(A8)&lt;&gt;Calendar11MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+      <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="49" priority="31">
-      <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="48" priority="30">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="47" priority="19">
+    <cfRule type="expression" dxfId="48" priority="20">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="47" priority="28">
+      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="46" priority="27">
-      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="45" priority="26">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="44" priority="22">
+    <cfRule type="expression" dxfId="45" priority="23">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E12">
+    <cfRule type="expression" dxfId="44" priority="25">
+      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
     <cfRule type="expression" dxfId="43" priority="24">
-      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="42" priority="23">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B15 E15">
-    <cfRule type="expression" dxfId="41" priority="17">
+  <conditionalFormatting sqref="A15:B15">
+    <cfRule type="expression" dxfId="42" priority="18">
       <formula>MONTH(A15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="A16">
     <cfRule type="expression" dxfId="40" priority="16">
-      <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+      <formula>MONTH(A16)&lt;&gt;Calendar12MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
     <cfRule type="expression" dxfId="39" priority="15">
-      <formula>MONTH(A16)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
+      <formula>MONTH(A9)&lt;&gt;Calendar11MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="38" priority="14">
-      <formula>MONTH(A9)&lt;&gt;Calendar11MonthOption</formula>
+      <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="37" priority="13">
-      <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
+      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
@@ -5840,44 +5851,44 @@
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="35" priority="11">
-      <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="34" priority="7">
+      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="33" priority="6">
-      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+      <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C16">
     <cfRule type="expression" dxfId="32" priority="5">
-      <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C16">
+      <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="31" priority="4">
-      <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+      <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
     <cfRule type="expression" dxfId="30" priority="3">
-      <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
+      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="29" priority="2">
-      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="28" priority="1">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5893,22 +5904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ACDB1-A445-473D-AD38-F6366C3A5E16}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="20.4140625" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2019</v>
@@ -5923,7 +5934,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -5953,7 +5964,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43794</v>
@@ -5977,7 +5988,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>71</v>
       </c>
@@ -5998,7 +6009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="C5" s="32"/>
       <c r="D5" s="10"/>
@@ -6012,7 +6023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43801</v>
@@ -6036,7 +6047,7 @@
         <v>43807</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
         <v>113</v>
       </c>
@@ -6046,7 +6057,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -6055,7 +6066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43808</v>
@@ -6079,7 +6090,7 @@
         <v>43814</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78"/>
       <c r="B9" s="78"/>
       <c r="C9" s="26" t="s">
@@ -6104,7 +6115,7 @@
       </c>
       <c r="P9" s="88"/>
     </row>
-    <row r="10" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="26"/>
@@ -6115,7 +6126,7 @@
       <c r="F10" s="70"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43815</v>
@@ -6143,7 +6154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="70" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>101</v>
       </c>
@@ -6166,7 +6177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="array" ref="A13:G13">Days+29+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43822</v>
@@ -6190,7 +6201,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>72</v>
       </c>
@@ -6211,7 +6222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="34"/>
       <c r="C15" s="10"/>
@@ -6226,7 +6237,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="array" ref="A16:B16">Days+36+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43829</v>
@@ -6234,13 +6245,13 @@
       <c r="B16" s="4">
         <v>43830</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
     </row>
-    <row r="17" spans="1:7" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="73"/>
@@ -6251,149 +6262,149 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A16:B16 F12:G12 A4:B4 A3:G3 A13:G13 E14:G14 A14 C14">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>MONTH(A3)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="26" priority="38">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>MONTH(C14)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>MONTH(A14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>MONTH(A15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MONTH(A15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>MONTH(A5)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MONTH(B14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MONTH(C4)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MONTH(E7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6413,25 +6424,25 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="F4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.9140625" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.08203125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.08203125" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
     <col min="12" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>76</v>
       </c>
@@ -6442,7 +6453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>77</v>
       </c>
@@ -6452,23 +6463,23 @@
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="F2" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
       <c r="K2" s="62" t="s">
         <v>113</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
     </row>
-    <row r="3" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>45</v>
       </c>
@@ -6481,7 +6492,7 @@
         <v>105</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
@@ -6489,12 +6500,12 @@
         <v>102</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="64"/>
       <c r="N3" s="64"/>
     </row>
-    <row r="4" spans="1:17" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>31</v>
       </c>
@@ -6504,10 +6515,10 @@
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="F4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>123</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>124</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
@@ -6515,12 +6526,12 @@
         <v>112</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
     </row>
-    <row r="5" spans="1:17" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="98.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -6528,21 +6539,21 @@
       <c r="F5" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
       <c r="K5" s="41" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
     </row>
-    <row r="6" spans="1:17" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -6558,12 +6569,12 @@
         <v>17</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>78</v>
       </c>
@@ -6579,7 +6590,7 @@
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
         <v>43</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>39</v>
       </c>
@@ -6624,7 +6635,7 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
     </row>
-    <row r="10" spans="1:17" ht="136" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>79</v>
       </c>
@@ -6643,7 +6654,7 @@
       <c r="I10" s="64"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="45" t="s">
         <v>90</v>
       </c>
@@ -6655,10 +6666,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="L3:N3"/>
@@ -6669,90 +6686,84 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="337" priority="22">
+    <cfRule type="expression" dxfId="338" priority="22">
       <formula>MONTH(A2)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="336" priority="21">
+    <cfRule type="expression" dxfId="337" priority="21">
       <formula>MONTH(A3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="335" priority="20">
+    <cfRule type="expression" dxfId="336" priority="20">
       <formula>MONTH(A8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="334" priority="19">
+    <cfRule type="expression" dxfId="335" priority="19">
       <formula>MONTH(A9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="333" priority="17">
+    <cfRule type="expression" dxfId="334" priority="17">
       <formula>MONTH(F5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="332" priority="16">
+    <cfRule type="expression" dxfId="333" priority="16">
       <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="331" priority="15">
+    <cfRule type="expression" dxfId="332" priority="15">
       <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="330" priority="14">
+    <cfRule type="expression" dxfId="331" priority="14">
       <formula>MONTH(F10)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="329" priority="13">
+    <cfRule type="expression" dxfId="330" priority="13">
       <formula>MONTH(K5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="328" priority="12">
+    <cfRule type="expression" dxfId="329" priority="12">
       <formula>MONTH(K6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="327" priority="11">
+    <cfRule type="expression" dxfId="328" priority="11">
       <formula>MONTH(K6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="326" priority="9">
+    <cfRule type="expression" dxfId="327" priority="9">
       <formula>MONTH(F11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="325" priority="8">
+    <cfRule type="expression" dxfId="326" priority="8">
       <formula>MONTH(F11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="324" priority="5">
+    <cfRule type="expression" dxfId="325" priority="5">
       <formula>MONTH(K4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="323" priority="3">
+    <cfRule type="expression" dxfId="324" priority="3">
       <formula>MONTH(K3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="322" priority="2">
+    <cfRule type="expression" dxfId="323" priority="2">
       <formula>MONTH(K2)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6772,21 +6783,21 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="24.9140625" customWidth="1"/>
-    <col min="6" max="6" width="26.58203125" customWidth="1"/>
-    <col min="7" max="7" width="20.4140625" customWidth="1"/>
-    <col min="8" max="8" width="20.9140625" customWidth="1"/>
-    <col min="9" max="9" width="2.4140625" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="2.375" customWidth="1"/>
     <col min="14" max="14" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <v>2019</v>
@@ -6800,7 +6811,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -6830,7 +6841,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <f t="array" ref="B3:H3">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43465</v>
@@ -6854,7 +6865,7 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
         <v>49</v>
       </c>
@@ -6875,7 +6886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="10"/>
       <c r="D5" s="23"/>
@@ -6890,7 +6901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <f t="array" ref="B6:H6">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43472</v>
@@ -6914,7 +6925,7 @@
         <v>43478</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>47</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f t="array" ref="B8:H8">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43479</v>
@@ -6957,7 +6968,7 @@
         <v>43485</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="26" t="s">
@@ -6972,7 +6983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <f t="array" ref="B10:H10">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43486</v>
@@ -6996,7 +7007,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
@@ -7015,7 +7026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -7030,7 +7041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="array" ref="B13:H13">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43493</v>
@@ -7054,7 +7065,7 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="71.25" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
@@ -7075,7 +7086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
       <c r="D15" s="26"/>
@@ -7088,7 +7099,7 @@
       <c r="G15" s="75"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="26"/>
@@ -7099,7 +7110,7 @@
       <c r="G16" s="76"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <f t="array" ref="B17:C17">Days+36+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>43500</v>
@@ -7115,7 +7126,7 @@
       <c r="G17" s="72"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
@@ -7126,202 +7137,202 @@
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
       <c r="H19" s="73"/>
     </row>
-    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:8" ht="41.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="100.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="46" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="100.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
     </row>
-    <row r="68" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
     </row>
-    <row r="82" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:1" ht="77.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:1" ht="77.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:1" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
     </row>
-    <row r="138" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="56.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="57" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="63.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="57" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
@@ -7332,107 +7343,107 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:H6 B8:H8 B10:H10 B13:H13 C4:F4 E11:F11 D9 B11 C18 G14:H14 H15 B17:C17 B3:H3">
-    <cfRule type="expression" dxfId="321" priority="80">
+    <cfRule type="expression" dxfId="322" priority="80">
       <formula>MONTH(B3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="320" priority="42">
+    <cfRule type="expression" dxfId="321" priority="42">
       <formula>MONTH(C4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="319" priority="41">
+    <cfRule type="expression" dxfId="320" priority="41">
       <formula>MONTH(B11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="318" priority="30">
+    <cfRule type="expression" dxfId="319" priority="30">
       <formula>MONTH(K12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="317" priority="29">
+    <cfRule type="expression" dxfId="318" priority="29">
       <formula>MONTH(F12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="316" priority="28">
+    <cfRule type="expression" dxfId="317" priority="28">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="315" priority="27">
+    <cfRule type="expression" dxfId="316" priority="27">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="314" priority="24">
+    <cfRule type="expression" dxfId="315" priority="24">
       <formula>MONTH(F5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="313" priority="23">
+    <cfRule type="expression" dxfId="314" priority="23">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="312" priority="22">
+    <cfRule type="expression" dxfId="313" priority="22">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="311" priority="21">
+    <cfRule type="expression" dxfId="312" priority="21">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="310" priority="1">
+    <cfRule type="expression" dxfId="311" priority="1">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 B14:F15">
-    <cfRule type="expression" dxfId="309" priority="10">
+    <cfRule type="expression" dxfId="310" priority="10">
       <formula>MONTH(B14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="308" priority="9">
+    <cfRule type="expression" dxfId="309" priority="9">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="307" priority="7">
+    <cfRule type="expression" dxfId="308" priority="7">
       <formula>MONTH(F15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="306" priority="8">
+    <cfRule type="expression" dxfId="307" priority="8">
       <formula>MONTH(F14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="305" priority="6">
+    <cfRule type="expression" dxfId="306" priority="6">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="expression" dxfId="304" priority="5">
+    <cfRule type="expression" dxfId="305" priority="5">
       <formula>MONTH(B16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="303" priority="4">
+    <cfRule type="expression" dxfId="304" priority="4">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="302" priority="3">
+    <cfRule type="expression" dxfId="303" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="301" priority="2">
+    <cfRule type="expression" dxfId="302" priority="2">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7479,18 +7490,18 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="23.58203125" customWidth="1"/>
-    <col min="5" max="5" width="26.9140625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
@@ -7505,7 +7516,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -7535,7 +7546,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43493</v>
@@ -7559,7 +7570,7 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
@@ -7580,7 +7591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="26"/>
@@ -7597,7 +7608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="26"/>
@@ -7608,7 +7619,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43500</v>
@@ -7636,7 +7647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -7656,7 +7667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="array" ref="A9:G9">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43507</v>
@@ -7684,7 +7695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="26" t="s">
@@ -7694,7 +7705,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43514</v>
@@ -7722,7 +7733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -7741,7 +7752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -7752,7 +7763,7 @@
       <c r="F13" s="70"/>
       <c r="G13" s="71"/>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43521</v>
@@ -7780,7 +7791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>48</v>
       </c>
@@ -7797,7 +7808,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -7808,7 +7819,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7821,7 +7832,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="array" ref="A18:B18">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43528</v>
@@ -7835,7 +7846,7 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>52</v>
       </c>
@@ -7859,147 +7870,147 @@
     <mergeCell ref="D12:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G7 A9:G9 A11:G11 E8:G8 A12 A4:E5 A3:G3 F16:F17 A14:G14 A18:B18 A15 C15:D15 F15:G16">
-    <cfRule type="expression" dxfId="300" priority="34">
+    <cfRule type="expression" dxfId="301" priority="34">
       <formula>MONTH(A3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="299" priority="33">
+    <cfRule type="expression" dxfId="300" priority="33">
       <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="298" priority="32">
+    <cfRule type="expression" dxfId="299" priority="32">
       <formula>MONTH(F8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="297" priority="31">
+    <cfRule type="expression" dxfId="298" priority="31">
       <formula>MONTH(G8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="296" priority="30">
+    <cfRule type="expression" dxfId="297" priority="30">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="295" priority="28">
+    <cfRule type="expression" dxfId="296" priority="28">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="294" priority="29">
+    <cfRule type="expression" dxfId="295" priority="29">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="293" priority="27">
+    <cfRule type="expression" dxfId="294" priority="27">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="292" priority="26">
+    <cfRule type="expression" dxfId="293" priority="26">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="291" priority="25">
+    <cfRule type="expression" dxfId="292" priority="25">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="290" priority="24">
+    <cfRule type="expression" dxfId="291" priority="24">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="289" priority="21">
+    <cfRule type="expression" dxfId="290" priority="21">
       <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="288" priority="20">
+    <cfRule type="expression" dxfId="289" priority="20">
       <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="287" priority="19">
+    <cfRule type="expression" dxfId="288" priority="19">
       <formula>MONTH(A6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="286" priority="18">
+    <cfRule type="expression" dxfId="287" priority="18">
       <formula>MONTH(C6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="285" priority="17">
+    <cfRule type="expression" dxfId="286" priority="17">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="284" priority="16">
+    <cfRule type="expression" dxfId="285" priority="16">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="283" priority="15">
+    <cfRule type="expression" dxfId="284" priority="15">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="282" priority="10">
+    <cfRule type="expression" dxfId="283" priority="10">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="281" priority="13">
+    <cfRule type="expression" dxfId="282" priority="13">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="280" priority="11">
+    <cfRule type="expression" dxfId="281" priority="11">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="279" priority="12">
+    <cfRule type="expression" dxfId="280" priority="12">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="278" priority="9">
+    <cfRule type="expression" dxfId="279" priority="9">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="277" priority="8">
+    <cfRule type="expression" dxfId="278" priority="8">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="276" priority="7">
+    <cfRule type="expression" dxfId="277" priority="7">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="275" priority="4">
+    <cfRule type="expression" dxfId="276" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="274" priority="3">
+    <cfRule type="expression" dxfId="275" priority="3">
       <formula>MONTH(E17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="273" priority="2">
+    <cfRule type="expression" dxfId="274" priority="2">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="272" priority="1">
+    <cfRule type="expression" dxfId="273" priority="1">
       <formula>MONTH(C10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8021,18 +8032,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" customWidth="1"/>
-    <col min="2" max="2" width="18.08203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="24.9140625" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
@@ -8047,7 +8058,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -8077,7 +8088,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43521</v>
@@ -8101,7 +8112,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
@@ -8122,7 +8133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -8137,7 +8148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -8150,7 +8161,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43528</v>
@@ -8178,7 +8189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>52</v>
       </c>
@@ -8195,14 +8206,14 @@
       <c r="G8" s="29"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+15+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43535</v>
@@ -8230,7 +8241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26" t="s">
@@ -8241,7 +8252,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="array" ref="A12:G12">Days+22+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43542</v>
@@ -8269,7 +8280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A13" s="80"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -8286,7 +8297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A14" s="81"/>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
@@ -8297,7 +8308,7 @@
       <c r="F14" s="70"/>
       <c r="G14" s="71"/>
     </row>
-    <row r="15" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="array" ref="A15:G15">Days+29+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43549</v>
@@ -8325,7 +8336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>48</v>
       </c>
@@ -8342,7 +8353,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="24"/>
@@ -8353,7 +8364,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -8366,7 +8377,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="array" ref="A19:B19">Days+36+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43556</v>
@@ -8380,7 +8391,7 @@
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
     </row>
-    <row r="20" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>55</v>
       </c>
@@ -8405,142 +8416,142 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G8 A10:G10 A12:G12 A15:G15 A13:D13 F16:G17 A16:D16 A19:B19 A3:G3">
-    <cfRule type="expression" dxfId="271" priority="30">
+    <cfRule type="expression" dxfId="272" priority="30">
       <formula>MONTH(A3)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="270" priority="28">
+    <cfRule type="expression" dxfId="271" priority="28">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="269" priority="29">
+    <cfRule type="expression" dxfId="270" priority="29">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="268" priority="27">
+    <cfRule type="expression" dxfId="269" priority="27">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="267" priority="23">
+    <cfRule type="expression" dxfId="268" priority="23">
       <formula>MONTH(E17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="266" priority="25">
+    <cfRule type="expression" dxfId="267" priority="25">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="265" priority="24">
+    <cfRule type="expression" dxfId="266" priority="24">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 C4:D4">
-    <cfRule type="expression" dxfId="264" priority="22">
+    <cfRule type="expression" dxfId="265" priority="22">
       <formula>MONTH(A4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="263" priority="21">
+    <cfRule type="expression" dxfId="264" priority="21">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="262" priority="19">
+    <cfRule type="expression" dxfId="263" priority="19">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="261" priority="18">
+    <cfRule type="expression" dxfId="262" priority="18">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="260" priority="16">
+    <cfRule type="expression" dxfId="261" priority="16">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="259" priority="17">
+    <cfRule type="expression" dxfId="260" priority="17">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="258" priority="15">
+    <cfRule type="expression" dxfId="259" priority="15">
       <formula>MONTH(A17)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="257" priority="14">
+    <cfRule type="expression" dxfId="258" priority="14">
       <formula>MONTH(C17)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="256" priority="13">
+    <cfRule type="expression" dxfId="257" priority="13">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="255" priority="12">
+    <cfRule type="expression" dxfId="256" priority="12">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="254" priority="11">
+    <cfRule type="expression" dxfId="255" priority="11">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="253" priority="10">
+    <cfRule type="expression" dxfId="254" priority="10">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="252" priority="9">
+    <cfRule type="expression" dxfId="253" priority="9">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="251" priority="8">
+    <cfRule type="expression" dxfId="252" priority="8">
       <formula>MONTH(D18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="250" priority="7">
+    <cfRule type="expression" dxfId="251" priority="7">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="249" priority="6">
+    <cfRule type="expression" dxfId="250" priority="6">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="248" priority="5">
+    <cfRule type="expression" dxfId="249" priority="5">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="247" priority="4">
+    <cfRule type="expression" dxfId="248" priority="4">
       <formula>MONTH(E18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="246" priority="3">
+    <cfRule type="expression" dxfId="247" priority="3">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="245" priority="2">
+    <cfRule type="expression" dxfId="246" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="244" priority="1">
+    <cfRule type="expression" dxfId="245" priority="1">
       <formula>MONTH(A9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8562,18 +8573,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.9140625" customWidth="1"/>
-    <col min="2" max="2" width="18.58203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="18.08203125" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2019</v>
@@ -8588,7 +8599,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -8618,7 +8629,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43556</v>
@@ -8642,7 +8653,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>55</v>
       </c>
@@ -8662,7 +8673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43563</v>
@@ -8690,7 +8701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>99</v>
       </c>
@@ -8705,7 +8716,7 @@
       </c>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43570</v>
@@ -8733,7 +8744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>99</v>
       </c>
@@ -8750,7 +8761,7 @@
       </c>
       <c r="G8" s="69"/>
     </row>
-    <row r="9" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
       <c r="C9" s="70"/>
@@ -8765,7 +8776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43577</v>
@@ -8789,7 +8800,7 @@
         <v>43583</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="98" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>48</v>
       </c>
@@ -8810,7 +8821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
@@ -8825,7 +8836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -8838,7 +8849,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43584</v>
@@ -8866,7 +8877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>57</v>
       </c>
@@ -8882,7 +8893,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="73"/>
@@ -8900,102 +8911,102 @@
     <mergeCell ref="C8:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 F11:G12 A3:G3 A14:G14">
-    <cfRule type="expression" dxfId="243" priority="27">
+    <cfRule type="expression" dxfId="244" priority="27">
       <formula>MONTH(A3)&lt;&gt;Calendar4MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="242" priority="25">
+    <cfRule type="expression" dxfId="243" priority="25">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="241" priority="26">
+    <cfRule type="expression" dxfId="242" priority="26">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="240" priority="14">
+    <cfRule type="expression" dxfId="241" priority="14">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:D11">
-    <cfRule type="expression" dxfId="239" priority="22">
+    <cfRule type="expression" dxfId="240" priority="22">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="238" priority="21">
+    <cfRule type="expression" dxfId="239" priority="21">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="237" priority="17">
+    <cfRule type="expression" dxfId="238" priority="17">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="236" priority="19">
+    <cfRule type="expression" dxfId="237" priority="19">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="235" priority="18">
+    <cfRule type="expression" dxfId="236" priority="18">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="234" priority="16">
+    <cfRule type="expression" dxfId="235" priority="16">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="233" priority="15">
+    <cfRule type="expression" dxfId="234" priority="15">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="232" priority="11">
+    <cfRule type="expression" dxfId="233" priority="11">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="231" priority="10">
+    <cfRule type="expression" dxfId="232" priority="10">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="230" priority="9">
+    <cfRule type="expression" dxfId="231" priority="9">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="229" priority="7">
+    <cfRule type="expression" dxfId="230" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="228" priority="4">
+    <cfRule type="expression" dxfId="229" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="227" priority="5">
+    <cfRule type="expression" dxfId="228" priority="5">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="226" priority="3">
+    <cfRule type="expression" dxfId="227" priority="3">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="225" priority="2">
+    <cfRule type="expression" dxfId="226" priority="2">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="224" priority="1">
+    <cfRule type="expression" dxfId="225" priority="1">
       <formula>MONTH(C15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9016,18 +9027,18 @@
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="3" width="20.9140625" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="22.9140625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="17.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2019</v>
@@ -9042,7 +9053,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -9072,7 +9083,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43584</v>
@@ -9096,7 +9107,7 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>57</v>
       </c>
@@ -9117,7 +9128,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="E5" s="34" t="s">
         <v>92</v>
@@ -9129,7 +9140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43591</v>
@@ -9157,7 +9168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
         <v>113</v>
       </c>
@@ -9170,7 +9181,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43598</v>
@@ -9198,7 +9209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78"/>
       <c r="B9" s="78"/>
       <c r="C9" s="26" t="s">
@@ -9215,7 +9226,7 @@
       </c>
       <c r="G9" s="69"/>
     </row>
-    <row r="10" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="26"/>
@@ -9230,7 +9241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43605</v>
@@ -9254,7 +9265,7 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
         <v>101</v>
       </c>
@@ -9277,7 +9288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86"/>
       <c r="B13" s="83" t="s">
         <v>101</v>
@@ -9292,7 +9303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43612</v>
@@ -9316,7 +9327,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="23"/>
       <c r="D16" s="82"/>
@@ -9361,137 +9372,137 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A14:G14 F12:G12 A3:G3 G13 A15:B15 D15:G15 A4 C4:G4">
-    <cfRule type="expression" dxfId="223" priority="36">
+    <cfRule type="expression" dxfId="224" priority="36">
       <formula>MONTH(A3)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="222" priority="35">
+    <cfRule type="expression" dxfId="223" priority="35">
       <formula>MONTH(A15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="221" priority="34">
+    <cfRule type="expression" dxfId="222" priority="34">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="220" priority="33">
+    <cfRule type="expression" dxfId="221" priority="33">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="219" priority="22">
+    <cfRule type="expression" dxfId="220" priority="22">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="218" priority="30">
+    <cfRule type="expression" dxfId="219" priority="30">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="217" priority="29">
+    <cfRule type="expression" dxfId="218" priority="29">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="216" priority="25">
+    <cfRule type="expression" dxfId="217" priority="25">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16 E5">
-    <cfRule type="expression" dxfId="215" priority="27">
+    <cfRule type="expression" dxfId="216" priority="27">
       <formula>MONTH(E5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="214" priority="26">
+    <cfRule type="expression" dxfId="215" priority="26">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="213" priority="17">
+    <cfRule type="expression" dxfId="214" priority="17">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="212" priority="20">
+    <cfRule type="expression" dxfId="213" priority="20">
       <formula>MONTH(B15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="212" priority="19">
       <formula>MONTH(B15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="210" priority="18">
+    <cfRule type="expression" dxfId="211" priority="18">
       <formula>MONTH(B15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="209" priority="16">
+    <cfRule type="expression" dxfId="210" priority="16">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="208" priority="15">
+    <cfRule type="expression" dxfId="209" priority="15">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="207" priority="14">
+    <cfRule type="expression" dxfId="208" priority="14">
       <formula>MONTH(B16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="206" priority="13">
+    <cfRule type="expression" dxfId="207" priority="13">
       <formula>MONTH(B16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="205" priority="12">
+    <cfRule type="expression" dxfId="206" priority="12">
       <formula>MONTH(B16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="204" priority="11">
+    <cfRule type="expression" dxfId="205" priority="11">
       <formula>MONTH(B16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="203" priority="10">
+    <cfRule type="expression" dxfId="204" priority="10">
       <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="202" priority="9">
+    <cfRule type="expression" dxfId="203" priority="9">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="201" priority="6">
+    <cfRule type="expression" dxfId="202" priority="6">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="200" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>MONTH(C10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="199" priority="3">
+    <cfRule type="expression" dxfId="200" priority="3">
       <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="198" priority="2">
+    <cfRule type="expression" dxfId="199" priority="2">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="197" priority="1">
+    <cfRule type="expression" dxfId="198" priority="1">
       <formula>MONTH(C15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9513,18 +9524,18 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.9140625" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" customWidth="1"/>
-    <col min="4" max="4" width="20.9140625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="22.9140625" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2019</v>
@@ -9539,7 +9550,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -9569,7 +9580,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43612</v>
@@ -9593,15 +9604,15 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="23" t="s">
         <v>45</v>
       </c>
@@ -9612,11 +9623,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
@@ -9627,7 +9638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43619</v>
@@ -9651,7 +9662,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="90.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>59</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43626</v>
@@ -9696,7 +9707,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87" t="s">
         <v>113</v>
       </c>
@@ -9706,7 +9717,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>16</v>
@@ -9719,7 +9730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43633</v>
@@ -9743,7 +9754,7 @@
         <v>43639</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78"/>
       <c r="B11" s="78"/>
       <c r="C11" s="26" t="s">
@@ -9764,7 +9775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.3">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="26"/>
@@ -9779,7 +9790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="array" ref="A13:G13">Days+29+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43640</v>
@@ -9803,8 +9814,8 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -9826,12 +9837,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
-      <c r="B15" s="94" t="s">
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="89"/>
+      <c r="B15" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="25"/>
       <c r="E15" s="22" t="s">
         <v>43</v>
@@ -9839,10 +9850,10 @@
       <c r="F15" s="75"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
+    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="90"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="23" t="s">
         <v>60</v>
       </c>
@@ -9856,7 +9867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43647</v>
@@ -9864,13 +9875,13 @@
       <c r="B17" s="11">
         <v>43648</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
     </row>
-    <row r="18" spans="1:7" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>61</v>
       </c>
@@ -9883,11 +9894,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C17:G17"/>
@@ -9896,179 +9902,184 @@
     <mergeCell ref="F11:G12"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="B15:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A10:G10 A13:G13 F14:G14 A3:G3 A17:B17 G15 F4:G4">
-    <cfRule type="expression" dxfId="196" priority="44">
+    <cfRule type="expression" dxfId="197" priority="44">
       <formula>MONTH(A3)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="195" priority="43">
+    <cfRule type="expression" dxfId="196" priority="43">
       <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="194" priority="42">
+    <cfRule type="expression" dxfId="195" priority="42">
       <formula>MONTH(G9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="193" priority="41">
+    <cfRule type="expression" dxfId="194" priority="41">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="192" priority="40">
+    <cfRule type="expression" dxfId="193" priority="40">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="191" priority="29">
+    <cfRule type="expression" dxfId="192" priority="29">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="190" priority="37">
+    <cfRule type="expression" dxfId="191" priority="37">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="189" priority="36">
+    <cfRule type="expression" dxfId="190" priority="36">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="188" priority="32">
+    <cfRule type="expression" dxfId="189" priority="32">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="187" priority="34">
+    <cfRule type="expression" dxfId="188" priority="34">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="186" priority="33">
+    <cfRule type="expression" dxfId="187" priority="33">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="185" priority="26">
+    <cfRule type="expression" dxfId="186" priority="26">
       <formula>MONTH(A18)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="184" priority="25">
+    <cfRule type="expression" dxfId="185" priority="25">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="183" priority="24">
+    <cfRule type="expression" dxfId="184" priority="24">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="182" priority="23">
+    <cfRule type="expression" dxfId="183" priority="23">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 D4:E4">
-    <cfRule type="expression" dxfId="181" priority="22">
+    <cfRule type="expression" dxfId="182" priority="22">
       <formula>MONTH(A4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="180" priority="21">
+    <cfRule type="expression" dxfId="181" priority="21">
       <formula>MONTH(A4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="179" priority="18">
+    <cfRule type="expression" dxfId="180" priority="18">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="178" priority="20">
+    <cfRule type="expression" dxfId="179" priority="20">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="177" priority="19">
+    <cfRule type="expression" dxfId="178" priority="19">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="176" priority="17">
+    <cfRule type="expression" dxfId="177" priority="17">
       <formula>MONTH(B4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="175" priority="16">
+    <cfRule type="expression" dxfId="176" priority="16">
       <formula>MONTH(B4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="174" priority="15">
+    <cfRule type="expression" dxfId="175" priority="15">
       <formula>MONTH(B4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="173" priority="14">
+    <cfRule type="expression" dxfId="174" priority="14">
       <formula>MONTH(A5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="173" priority="13">
       <formula>MONTH(A5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="171" priority="12">
+    <cfRule type="expression" dxfId="172" priority="12">
       <formula>MONTH(B5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="170" priority="11">
+    <cfRule type="expression" dxfId="171" priority="11">
       <formula>MONTH(B5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="169" priority="10">
+    <cfRule type="expression" dxfId="170" priority="10">
       <formula>MONTH(B5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="168" priority="9">
+    <cfRule type="expression" dxfId="169" priority="9">
       <formula>MONTH(B5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="167" priority="7">
+    <cfRule type="expression" dxfId="168" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="166" priority="5">
+    <cfRule type="expression" dxfId="167" priority="5">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="165" priority="4">
+    <cfRule type="expression" dxfId="166" priority="4">
       <formula>MONTH(C7)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="164" priority="3">
+    <cfRule type="expression" dxfId="165" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="164" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="162" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10089,18 +10100,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="19.9140625" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="32.9140625" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="18.4140625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" x14ac:dyDescent="1">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2019</v>
@@ -10115,7 +10126,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:G2" si="0">UPPER(TEXT(A3,"dddd"))</f>
         <v>MONDAY</v>
@@ -10145,7 +10156,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43647</v>
@@ -10169,12 +10180,12 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="80"/>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="98" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -10190,10 +10201,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="81"/>
-      <c r="C5" s="98"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="10"/>
       <c r="E5" s="23" t="s">
         <v>31</v>
@@ -10205,7 +10216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43654</v>
@@ -10229,7 +10240,7 @@
         <v>43660</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
         <v>113</v>
       </c>
@@ -10239,7 +10250,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -10248,7 +10259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43661</v>
@@ -10272,7 +10283,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80"/>
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
@@ -10293,7 +10304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A10" s="81"/>
       <c r="B10" s="81"/>
       <c r="C10" s="26"/>
@@ -10304,7 +10315,7 @@
       <c r="F10" s="70"/>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43668</v>
@@ -10332,8 +10343,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -10355,9 +10366,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
-      <c r="B13" s="100" t="s">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="97" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="84"/>
@@ -10366,7 +10377,7 @@
       <c r="F13" s="75"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43675</v>
@@ -10394,13 +10405,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="23" t="s">
         <v>45</v>
       </c>
@@ -10411,13 +10422,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
@@ -10426,6 +10437,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="A9:A10"/>
@@ -10433,151 +10451,144 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A9 F12:G12 A4 A3:G3 G13 A14:G14 A15:B15 E15:G15 D4">
-    <cfRule type="expression" dxfId="161" priority="42">
+    <cfRule type="expression" dxfId="162" priority="42">
       <formula>MONTH(A3)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="160" priority="41">
+    <cfRule type="expression" dxfId="161" priority="41">
       <formula>MONTH(D4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="159" priority="40">
+    <cfRule type="expression" dxfId="160" priority="40">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="158" priority="39">
+    <cfRule type="expression" dxfId="159" priority="39">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="157" priority="28">
+    <cfRule type="expression" dxfId="158" priority="28">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="156" priority="36">
+    <cfRule type="expression" dxfId="157" priority="36">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="155" priority="35">
+    <cfRule type="expression" dxfId="156" priority="35">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="154" priority="31">
+    <cfRule type="expression" dxfId="155" priority="31">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="153" priority="33">
+    <cfRule type="expression" dxfId="154" priority="33">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="152" priority="32">
+    <cfRule type="expression" dxfId="153" priority="32">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="151" priority="26">
+    <cfRule type="expression" dxfId="152" priority="26">
       <formula>MONTH(B9)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="150" priority="20">
+    <cfRule type="expression" dxfId="151" priority="20">
       <formula>MONTH(D5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="149" priority="23">
+    <cfRule type="expression" dxfId="150" priority="23">
       <formula>MONTH(A5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="148" priority="21">
+    <cfRule type="expression" dxfId="149" priority="21">
       <formula>MONTH(D5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="147" priority="19">
+    <cfRule type="expression" dxfId="148" priority="19">
       <formula>MONTH(A15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="146" priority="18">
+    <cfRule type="expression" dxfId="147" priority="18">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="145" priority="17">
+    <cfRule type="expression" dxfId="146" priority="17">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="144" priority="16">
+    <cfRule type="expression" dxfId="145" priority="16">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="143" priority="15">
+    <cfRule type="expression" dxfId="144" priority="15">
       <formula>MONTH(C15)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="142" priority="14">
+    <cfRule type="expression" dxfId="143" priority="14">
       <formula>MONTH(D15)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="141" priority="12">
+    <cfRule type="expression" dxfId="142" priority="12">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="140" priority="6">
+    <cfRule type="expression" dxfId="141" priority="6">
       <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="139" priority="8">
+    <cfRule type="expression" dxfId="140" priority="8">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="138" priority="5">
+    <cfRule type="expression" dxfId="139" priority="5">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="137" priority="4">
+    <cfRule type="expression" dxfId="138" priority="4">
       <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="136" priority="3">
+    <cfRule type="expression" dxfId="137" priority="3">
       <formula>MONTH(B4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="135" priority="2">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>MONTH(C4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="134" priority="1">
+    <cfRule type="expression" dxfId="135" priority="1">
       <formula>MONTH(E7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2019 Deployment Schedule April-December.xlsx
+++ b/2019 Deployment Schedule April-December.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maura Vitelli\Documents\Salesforce DTC\Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25DBCE-5116-4090-9542-1D5A052DC034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A21369-F78F-4F19-9F28-4AF90C2FE410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Dates" sheetId="15" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <definedName name="ColumnTitleRegion33..D154.1">November!$C$17</definedName>
     <definedName name="ColumnTitleRegion34..H166.1">December!$A$2</definedName>
     <definedName name="ColumnTitleRegion35..C168.1">December!$A$2</definedName>
-    <definedName name="ColumnTitleRegion36..D168.1">December!$C$16</definedName>
+    <definedName name="ColumnTitleRegion36..D168.1">December!$C$15</definedName>
     <definedName name="ColumnTitleRegion4..H26.1">February!$A$2</definedName>
     <definedName name="ColumnTitleRegion5..C28.1">February!$A$2</definedName>
     <definedName name="ColumnTitleRegion6..D28.1">February!$C$18</definedName>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="126">
   <si>
     <t>Notes:</t>
   </si>
@@ -670,55 +670,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Build Completion Due</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> - Case for Deployment to iSIT must be submitted by EOD - Note ISIT was phased out in April of 2019, please refer to the next box for UAT completion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In addition to development being completed, packages you wish to deploy should have been fully tested in your developer SIT environment. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DTC STRONGLY recommends you complete development well before this deadline to leave time for sufficient testing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Following testing in your developer SIT environment, submit a case to move to iSIT no later than this deadline. Your package will also be deployed to ENTSD where you can have elevated access for additional testing if requested. Should your package fail to deploy to iSIT and you have a new submission with changes, you MUST submit a new case. </t>
-    </r>
-  </si>
-  <si>
     <t>Salesforce Winter '20 Release Live in Production 12AM EDT!</t>
   </si>
   <si>
@@ -750,7 +701,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
@@ -932,38 +883,8 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,12 +993,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1283,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -1526,16 +1441,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
@@ -1604,12 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1628,8 +1531,11 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="20" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1639,6 +1545,9 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1671,17 +1580,7 @@
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="339">
-    <dxf>
-      <font>
-        <color rgb="FF747474"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF747474"/>
-      </font>
-    </dxf>
+  <dxfs count="337">
     <dxf>
       <font>
         <color rgb="FF747474"/>
@@ -3678,13 +3577,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3801,31 +3700,31 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar7Year,Calendar7MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar7Year,Calendar7MonthOption+1,1),"mmmm")</f>
         <v>August</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3860,7 +3759,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43675</v>
@@ -3884,13 +3783,13 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="23" t="s">
         <v>45</v>
       </c>
@@ -3901,13 +3800,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
@@ -3918,7 +3817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43682</v>
@@ -3960,7 +3859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43689</v>
@@ -3984,17 +3883,17 @@
         <v>43695</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+    <row r="9" spans="1:10" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
@@ -4003,7 +3902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43696</v>
@@ -4027,43 +3926,43 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+    <row r="11" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="67"/>
       <c r="I11" s="30"/>
       <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="array" ref="A13:G13">Days+29+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43703</v>
@@ -4087,8 +3986,8 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="99.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+    <row r="14" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -4103,44 +4002,44 @@
       <c r="E14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="29"/>
       <c r="I14" s="28"/>
       <c r="J14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="96" t="s">
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="93"/>
+      <c r="B15" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="25"/>
       <c r="E15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="89"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="102"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="16"/>
       <c r="I16" s="60"/>
       <c r="J16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar8Year,Calendar8MonthOption,1)-WEEKDAY(DATE(Calendar8Year,Calendar8MonthOption,1),WeekdayOption)</f>
         <v>43710</v>
@@ -4148,27 +4047,34 @@
       <c r="B17" s="4">
         <v>43711</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="91"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="1:7" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B15:C16"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F14:F16"/>
@@ -4176,156 +4082,149 @@
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B15:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A10:G10 A13:G13 A17:B17 G14:G15 A3:G3 F4:G4">
-    <cfRule type="expression" dxfId="134" priority="38">
+    <cfRule type="expression" dxfId="132" priority="38">
       <formula>MONTH(A3)&lt;&gt;Calendar8MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="133" priority="37">
+    <cfRule type="expression" dxfId="131" priority="37">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="132" priority="36">
+    <cfRule type="expression" dxfId="130" priority="36">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="131" priority="25">
+    <cfRule type="expression" dxfId="129" priority="25">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="130" priority="33">
+    <cfRule type="expression" dxfId="128" priority="33">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="129" priority="32">
+    <cfRule type="expression" dxfId="127" priority="32">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="128" priority="28">
+    <cfRule type="expression" dxfId="126" priority="28">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="127" priority="30">
+    <cfRule type="expression" dxfId="125" priority="30">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="126" priority="29">
+    <cfRule type="expression" dxfId="124" priority="29">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="125" priority="23">
+    <cfRule type="expression" dxfId="123" priority="23">
       <formula>MONTH(A18)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="124" priority="22">
+    <cfRule type="expression" dxfId="122" priority="22">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="123" priority="21">
+    <cfRule type="expression" dxfId="121" priority="21">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="122" priority="20">
+    <cfRule type="expression" dxfId="120" priority="20">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 E4">
-    <cfRule type="expression" dxfId="121" priority="19">
+    <cfRule type="expression" dxfId="119" priority="19">
       <formula>MONTH(A4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="120" priority="16">
+    <cfRule type="expression" dxfId="118" priority="16">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="119" priority="18">
+    <cfRule type="expression" dxfId="117" priority="18">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="118" priority="17">
+    <cfRule type="expression" dxfId="116" priority="17">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="117" priority="15">
+    <cfRule type="expression" dxfId="115" priority="15">
       <formula>MONTH(A4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="116" priority="14">
+    <cfRule type="expression" dxfId="114" priority="14">
       <formula>MONTH(A4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="113" priority="13">
       <formula>MONTH(A4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="114" priority="11">
+    <cfRule type="expression" dxfId="112" priority="11">
       <formula>MONTH(B4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="113" priority="10">
+    <cfRule type="expression" dxfId="111" priority="10">
       <formula>MONTH(C4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="112" priority="9">
+    <cfRule type="expression" dxfId="110" priority="9">
       <formula>MONTH(D4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="111" priority="7">
+    <cfRule type="expression" dxfId="109" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="110" priority="5">
+    <cfRule type="expression" dxfId="108" priority="5">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="109" priority="4">
+    <cfRule type="expression" dxfId="107" priority="4">
       <formula>MONTH(C7)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="108" priority="3">
+    <cfRule type="expression" dxfId="106" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="107" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="106" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4342,32 +4241,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE516C1-600A-4375-BFD6-3CAC1508078C}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar8Year,Calendar8MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar8Year,Calendar8MonthOption+1,1),"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4402,7 +4301,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43703</v>
@@ -4426,7 +4325,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="63.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
@@ -4447,7 +4346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="24"/>
@@ -4473,7 +4372,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43710</v>
@@ -4501,7 +4400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -4521,14 +4420,14 @@
       <c r="G8" s="29"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+15+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43717</v>
@@ -4557,21 +4456,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="array" ref="A12:G12">Days+22+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43724</v>
@@ -4600,38 +4499,38 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="67"/>
       <c r="I13" s="10"/>
       <c r="J13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
+    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="array" ref="A15:G15">Days+29+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43731</v>
@@ -4660,7 +4559,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -4675,40 +4574,40 @@
       <c r="E16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="74"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="29"/>
       <c r="I16" s="60"/>
       <c r="J16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="93"/>
+      <c r="B17" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="25"/>
       <c r="E17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="array" ref="A19:B19">Days+36+DATE(Calendar9Year,Calendar9MonthOption,1)-WEEKDAY(DATE(Calendar9Year,Calendar9MonthOption,1),WeekdayOption)</f>
         <v>43738</v>
@@ -4716,22 +4615,22 @@
       <c r="B19" s="11">
         <v>43739</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-    </row>
-    <row r="20" spans="1:7" ht="57" x14ac:dyDescent="0.3">
+      <c r="C19" s="91"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+    </row>
+    <row r="20" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4748,152 +4647,152 @@
     <mergeCell ref="B17:C18"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G7 A10:G10 A12:G12 A15:G15 F16:G16 A19:B19 A3:G3 G17 A8:B8 F8:G8 D8">
-    <cfRule type="expression" dxfId="105" priority="39">
+    <cfRule type="expression" dxfId="103" priority="39">
       <formula>MONTH(A3)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="104" priority="38">
+    <cfRule type="expression" dxfId="102" priority="38">
       <formula>MONTH(A8)&lt;&gt;Calendar9MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="103" priority="37">
+    <cfRule type="expression" dxfId="101" priority="37">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="102" priority="36">
+    <cfRule type="expression" dxfId="100" priority="36">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="101" priority="25">
+    <cfRule type="expression" dxfId="99" priority="25">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16">
-    <cfRule type="expression" dxfId="100" priority="33">
+    <cfRule type="expression" dxfId="98" priority="33">
       <formula>MONTH(C16)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="99" priority="32">
+    <cfRule type="expression" dxfId="97" priority="32">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="98" priority="28">
+    <cfRule type="expression" dxfId="96" priority="28">
       <formula>MONTH(E17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="97" priority="30">
+    <cfRule type="expression" dxfId="95" priority="30">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="96" priority="29">
+    <cfRule type="expression" dxfId="94" priority="29">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="95" priority="20">
+    <cfRule type="expression" dxfId="93" priority="20">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="94" priority="15">
+    <cfRule type="expression" dxfId="92" priority="15">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="93" priority="23">
+    <cfRule type="expression" dxfId="91" priority="23">
       <formula>MONTH(A4)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="92" priority="22">
+    <cfRule type="expression" dxfId="90" priority="22">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="91" priority="21">
+    <cfRule type="expression" dxfId="89" priority="21">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="90" priority="18">
+    <cfRule type="expression" dxfId="88" priority="18">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="89" priority="19">
+    <cfRule type="expression" dxfId="87" priority="19">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="88" priority="17">
+    <cfRule type="expression" dxfId="86" priority="17">
       <formula>MONTH(A5)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="87" priority="16">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>MONTH(C5)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="86" priority="14">
+    <cfRule type="expression" dxfId="84" priority="14">
       <formula>MONTH(D18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="85" priority="13">
+    <cfRule type="expression" dxfId="83" priority="13">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="84" priority="12">
+    <cfRule type="expression" dxfId="82" priority="12">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="83" priority="9">
+    <cfRule type="expression" dxfId="81" priority="9">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="82" priority="7">
+    <cfRule type="expression" dxfId="80" priority="7">
       <formula>MONTH(B9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="81" priority="6">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="80" priority="5">
+    <cfRule type="expression" dxfId="78" priority="5">
       <formula>MONTH(C8)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="79" priority="4">
+    <cfRule type="expression" dxfId="77" priority="4">
       <formula>MONTH(E18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="78" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MONTH(C13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4914,28 +4813,28 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar9Year,Calendar9MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar9Year,Calendar9MonthOption+1,1),"mmmm")</f>
         <v>October</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4970,7 +4869,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43738</v>
@@ -4994,7 +4893,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>67</v>
       </c>
@@ -5015,7 +4914,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43745</v>
@@ -5043,26 +4942,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43752</v>
@@ -5094,37 +4993,37 @@
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>125</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="79"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
       <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43759</v>
@@ -5148,8 +5047,8 @@
         <v>43765</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -5164,44 +5063,44 @@
       <c r="E11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="29"/>
       <c r="I11" s="30"/>
       <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="96" t="s">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="25"/>
       <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="29"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="90"/>
+    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar10Year,Calendar10MonthOption,1)-WEEKDAY(DATE(Calendar10Year,Calendar10MonthOption,1),WeekdayOption)</f>
         <v>43766</v>
@@ -5229,7 +5128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>69</v>
       </c>
@@ -5262,117 +5161,117 @@
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 F11:G11 G12 A3:G3 A14:G14">
-    <cfRule type="expression" dxfId="75" priority="32">
+    <cfRule type="expression" dxfId="73" priority="32">
       <formula>MONTH(A3)&lt;&gt;Calendar10MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="74" priority="31">
+    <cfRule type="expression" dxfId="72" priority="31">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="73" priority="30">
+    <cfRule type="expression" dxfId="71" priority="30">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="72" priority="19">
+    <cfRule type="expression" dxfId="70" priority="19">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="71" priority="27">
+    <cfRule type="expression" dxfId="69" priority="27">
       <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="70" priority="26">
+    <cfRule type="expression" dxfId="68" priority="26">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="69" priority="22">
+    <cfRule type="expression" dxfId="67" priority="22">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="68" priority="24">
+    <cfRule type="expression" dxfId="66" priority="24">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="67" priority="23">
+    <cfRule type="expression" dxfId="65" priority="23">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="64" priority="16">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="64" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="63" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="62" priority="12">
+    <cfRule type="expression" dxfId="61" priority="12">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="61" priority="10">
+    <cfRule type="expression" dxfId="60" priority="10">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="60" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="59" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>MONTH(C15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="57" priority="6">
+    <cfRule type="expression" dxfId="56" priority="6">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>MONTH(G6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5389,32 +5288,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36EA52E-6383-4F2F-84FB-ABEA442AA77A}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar10Year,Calendar10MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar10Year,Calendar10MonthOption+1,1),"mmmm")</f>
         <v>November</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5449,7 +5348,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43766</v>
@@ -5473,7 +5372,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>69</v>
       </c>
@@ -5494,7 +5393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43773</v>
@@ -5522,22 +5421,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43780</v>
@@ -5565,41 +5464,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="79"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
       <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43787</v>
@@ -5623,8 +5522,8 @@
         <v>43793</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+    <row r="11" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -5639,44 +5538,44 @@
       <c r="E11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="29"/>
       <c r="I11" s="30"/>
       <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="96" t="s">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="25"/>
       <c r="E12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="29"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="90"/>
+    <row r="13" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43794</v>
@@ -5735,7 +5634,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar11Year,Calendar11MonthOption,1)-WEEKDAY(DATE(Calendar11Year,Calendar11MonthOption,1),WeekdayOption)</f>
         <v>43801</v>
@@ -5743,151 +5642,151 @@
       <c r="B17" s="11">
         <v>43802</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="91"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 A14:G14 F11:G11 F15:G15 A17:B17 A3:G3 G12">
-    <cfRule type="expression" dxfId="52" priority="34">
+    <cfRule type="expression" dxfId="50" priority="34">
       <formula>MONTH(A3)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="51" priority="33">
+    <cfRule type="expression" dxfId="49" priority="33">
       <formula>MONTH(A8)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="50" priority="32">
+    <cfRule type="expression" dxfId="48" priority="32">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="49" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="48" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D11">
-    <cfRule type="expression" dxfId="47" priority="28">
+    <cfRule type="expression" dxfId="45" priority="28">
       <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="44" priority="27">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="45" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="44" priority="25">
+    <cfRule type="expression" dxfId="42" priority="25">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="41" priority="24">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="40" priority="18">
       <formula>MONTH(A15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>MONTH(A16)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>MONTH(A9)&lt;&gt;Calendar11MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="34" priority="7">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>MONTH(C4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="expression" dxfId="32" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5902,34 +5801,34 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ACDB1-A445-473D-AD38-F6366C3A5E16}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar11Year,Calendar11MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar11Year,Calendar11MonthOption+1,1),"mmmm")</f>
         <v>December</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5964,7 +5863,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43794</v>
@@ -5988,7 +5887,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>71</v>
       </c>
@@ -5999,8 +5898,8 @@
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>103</v>
+      <c r="E4" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -6009,403 +5908,376 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="19"/>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <f t="array" ref="A6:G6">Days+8+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
+    <row r="5" spans="1:16" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <f t="array" ref="A5:G5">Days+8+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43801</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B5" s="4">
         <v>43802</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C5" s="4">
         <v>43803</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D5" s="4">
         <v>43804</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E5" s="4">
         <v>43805</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F5" s="11">
         <v>43806</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G5" s="12">
         <v>43807</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+    <row r="6" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="59" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="I7" s="27"/>
-      <c r="J7" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="27"/>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <f t="array" ref="A8:G8">Days+15+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
+    <row r="7" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <f t="array" ref="A7:G7">Days+15+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43808</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B7" s="4">
         <v>43809</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C7" s="4">
         <v>43810</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D7" s="4">
         <v>43811</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E7" s="4">
         <v>43812</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F7" s="11">
         <v>43813</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G7" s="12">
         <v>43814</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="26" t="s">
+    <row r="8" spans="1:16" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D8" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F8" s="66" t="s">
         <v>101</v>
       </c>
+      <c r="G8" s="67"/>
+      <c r="I8" s="20"/>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
+    </row>
+    <row r="9" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="68"/>
       <c r="G9" s="69"/>
-      <c r="I9" s="20"/>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="88"/>
-    </row>
-    <row r="10" spans="1:16" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <f t="array" ref="A11:G11">Days+22+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
+    </row>
+    <row r="10" spans="1:16" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <f t="array" ref="A10:G10">Days+22+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43815</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B10" s="4">
         <v>43816</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C10" s="4">
         <v>43817</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D10" s="4">
         <v>43818</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E10" s="4">
         <v>43819</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F10" s="11">
         <v>43820</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G10" s="12">
         <v>43821</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="I11" s="10"/>
       <c r="J11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="71.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="10"/>
-      <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <f t="array" ref="A13:G13">Days+29+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
+    <row r="12" spans="1:16" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <f t="array" ref="A12:G12">Days+29+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43822</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B12" s="4">
         <v>43823</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C12" s="4">
         <v>43824</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D12" s="4">
         <v>43825</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E12" s="4">
         <v>43826</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F12" s="11">
         <v>43827</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G12" s="12">
         <v>43828</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+    <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B13" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="23" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="29"/>
-      <c r="I14" s="28"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="60"/>
       <c r="J14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="16"/>
-      <c r="I15" s="60"/>
-      <c r="J15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f t="array" ref="A16:B16">Days+36+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
+    <row r="15" spans="1:16" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <f t="array" ref="A15:B15">Days+36+DATE(Calendar12Year,Calendar12MonthOption,1)-WEEKDAY(DATE(Calendar12Year,Calendar12MonthOption,1),WeekdayOption)</f>
         <v>43829</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B15" s="4">
         <v>43830</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+    </row>
+    <row r="16" spans="1:16" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A16:B16 F12:G12 A4:B4 A3:G3 A13:G13 E14:G14 A14 C14">
-    <cfRule type="expression" dxfId="28" priority="39">
+  <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 A15:B15 F11:G11 A4:B4 A3:G3 A12:G12 E13:G13 A13 C13">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>MONTH(A3)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="25" priority="39">
+      <formula>MONTH(C13)&lt;&gt;Calendar12MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="24" priority="38">
+      <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>MONTH(C11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="21" priority="33">
+      <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="expression" dxfId="20" priority="31">
+      <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>MONTH(A13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>MONTH(A13)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>MONTH(A14)&lt;&gt;Calendar12MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>MONTH(A14)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="12" priority="19">
+      <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="11" priority="18">
+      <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MONTH(C14)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="26" priority="37">
-      <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="24" priority="33">
-      <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="23" priority="32">
-      <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="20" priority="29">
-      <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>MONTH(A14)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>MONTH(A14)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>MONTH(A15)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>MONTH(A15)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>MONTH(A5)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>MONTH(C15)&lt;&gt;Calendar12MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>MONTH(B14)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>MONTH(C14)&lt;&gt;Calendar12MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>MONTH(I11)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>MONTH(B13)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>MONTH(B6)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MONTH(C4)&lt;&gt;Calendar12MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MONTH(E7)&lt;&gt;Calendar1MonthOption</formula>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>MONTH(C8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -6424,25 +6296,25 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
     <col min="12" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>76</v>
       </c>
@@ -6457,79 +6329,79 @@
       <c r="A2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="F2" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="F2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
       <c r="K2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
+      <c r="L2" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
     </row>
     <row r="3" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="F3" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+        <v>120</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="K3" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="F4" s="39" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="K4" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="98.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
@@ -6537,233 +6409,223 @@
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="F5" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+        <v>44</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
+      <c r="L5" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
-      <c r="F6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="K6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-    </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="43" t="s">
+        <v>81</v>
+      </c>
       <c r="K7" s="48"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="F8" s="43" t="s">
-        <v>81</v>
-      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="F8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="K8" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
       <c r="F9" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+        <v>75</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
     </row>
-    <row r="10" spans="1:17" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="135.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="F10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="F10" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="K10" s="44"/>
     </row>
-    <row r="11" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-    </row>
+    <row r="11" spans="1:17" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="338" priority="22">
+    <cfRule type="expression" dxfId="336" priority="22">
       <formula>MONTH(A2)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="337" priority="21">
+    <cfRule type="expression" dxfId="335" priority="21">
       <formula>MONTH(A3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="336" priority="20">
+    <cfRule type="expression" dxfId="334" priority="20">
       <formula>MONTH(A8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="335" priority="19">
+    <cfRule type="expression" dxfId="333" priority="19">
       <formula>MONTH(A9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="334" priority="17">
-      <formula>MONTH(F5)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="expression" dxfId="333" priority="16">
-      <formula>MONTH(F6)&lt;&gt;Calendar2MonthOption</formula>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="332" priority="17">
+      <formula>MONTH(F4)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="expression" dxfId="331" priority="16">
+      <formula>MONTH(F5)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="330" priority="15">
+      <formula>MONTH(F8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="332" priority="15">
+    <cfRule type="expression" dxfId="329" priority="14">
       <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="328" priority="13">
+      <formula>MONTH(K5)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="expression" dxfId="327" priority="12">
+      <formula>MONTH(K6)&lt;&gt;Calendar2MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="expression" dxfId="326" priority="11">
+      <formula>MONTH(K6)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="331" priority="14">
-      <formula>MONTH(F10)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="330" priority="13">
-      <formula>MONTH(K5)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="329" priority="12">
-      <formula>MONTH(K6)&lt;&gt;Calendar2MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K7">
-    <cfRule type="expression" dxfId="328" priority="11">
-      <formula>MONTH(K6)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="327" priority="9">
-      <formula>MONTH(F11)&lt;&gt;Calendar1MonthOption</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="326" priority="8">
-      <formula>MONTH(F11)&lt;&gt;Calendar1MonthOption</formula>
+    <cfRule type="expression" dxfId="325" priority="9">
+      <formula>MONTH(F10)&lt;&gt;Calendar1MonthOption</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="324" priority="8">
+      <formula>MONTH(F10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="325" priority="5">
+    <cfRule type="expression" dxfId="323" priority="5">
       <formula>MONTH(K4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="324" priority="3">
+    <cfRule type="expression" dxfId="322" priority="3">
       <formula>MONTH(K3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="323" priority="2">
+    <cfRule type="expression" dxfId="321" priority="2">
       <formula>MONTH(K2)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6783,30 +6645,30 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="2.375" customWidth="1"/>
-    <col min="14" max="14" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2"/>
       <c r="B1" s="1">
         <v>2019</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6865,7 +6727,7 @@
         <v>43471</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
         <v>49</v>
       </c>
@@ -6886,7 +6748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="10"/>
       <c r="D5" s="23"/>
@@ -7007,7 +6869,7 @@
         <v>43492</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
@@ -7017,16 +6879,16 @@
       <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="69"/>
+      <c r="H11" s="67"/>
       <c r="K11" s="30"/>
       <c r="L11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -7034,8 +6896,8 @@
       <c r="F12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="K12" s="10"/>
       <c r="L12" t="s">
         <v>37</v>
@@ -7065,7 +6927,7 @@
         <v>43499</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
@@ -7079,14 +6941,14 @@
       <c r="F14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="29"/>
       <c r="K14" s="28"/>
       <c r="L14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
       <c r="D15" s="26"/>
@@ -7096,10 +6958,10 @@
       <c r="F15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="26"/>
@@ -7107,7 +6969,7 @@
       <c r="F16" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="76"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7118,15 +6980,15 @@
       <c r="C17" s="11">
         <v>43501</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-    </row>
-    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>33</v>
       </c>
@@ -7138,11 +7000,11 @@
       <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -7158,11 +7020,11 @@
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:8" ht="41.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="100.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="45.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="45.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" ht="63.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7226,7 +7088,7 @@
     <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:1" ht="77.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:1" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7343,107 +7205,107 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:H6 B8:H8 B10:H10 B13:H13 C4:F4 E11:F11 D9 B11 C18 G14:H14 H15 B17:C17 B3:H3">
-    <cfRule type="expression" dxfId="322" priority="80">
+    <cfRule type="expression" dxfId="320" priority="80">
       <formula>MONTH(B3)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="321" priority="42">
+    <cfRule type="expression" dxfId="319" priority="42">
       <formula>MONTH(C4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="320" priority="41">
+    <cfRule type="expression" dxfId="318" priority="41">
       <formula>MONTH(B11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="319" priority="30">
+    <cfRule type="expression" dxfId="317" priority="30">
       <formula>MONTH(K12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="318" priority="29">
+    <cfRule type="expression" dxfId="316" priority="29">
       <formula>MONTH(F12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="317" priority="28">
+    <cfRule type="expression" dxfId="315" priority="28">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="316" priority="27">
+    <cfRule type="expression" dxfId="314" priority="27">
       <formula>MONTH(B12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="315" priority="24">
+    <cfRule type="expression" dxfId="313" priority="24">
       <formula>MONTH(F5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="314" priority="23">
+    <cfRule type="expression" dxfId="312" priority="23">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="313" priority="22">
+    <cfRule type="expression" dxfId="311" priority="22">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="312" priority="21">
+    <cfRule type="expression" dxfId="310" priority="21">
       <formula>MONTH(C5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="311" priority="1">
+    <cfRule type="expression" dxfId="309" priority="1">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16 B14:F15">
-    <cfRule type="expression" dxfId="310" priority="10">
+    <cfRule type="expression" dxfId="308" priority="10">
       <formula>MONTH(B14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="309" priority="9">
+    <cfRule type="expression" dxfId="307" priority="9">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="308" priority="7">
+    <cfRule type="expression" dxfId="306" priority="7">
       <formula>MONTH(F15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="307" priority="8">
+    <cfRule type="expression" dxfId="305" priority="8">
       <formula>MONTH(F14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="306" priority="6">
+    <cfRule type="expression" dxfId="304" priority="6">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="expression" dxfId="305" priority="5">
+    <cfRule type="expression" dxfId="303" priority="5">
       <formula>MONTH(B16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="304" priority="4">
+    <cfRule type="expression" dxfId="302" priority="4">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="303" priority="3">
+    <cfRule type="expression" dxfId="301" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="302" priority="2">
+    <cfRule type="expression" dxfId="300" priority="2">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7490,28 +7352,28 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar1Year,Calendar1MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar1Year,Calendar1MonthOption+1,1),"mmmm")</f>
         <v>February</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7546,7 +7408,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43493</v>
@@ -7591,7 +7453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="21"/>
       <c r="C5" s="26"/>
@@ -7608,7 +7470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="26"/>
@@ -7619,7 +7481,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43500</v>
@@ -7647,7 +7509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="95.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
@@ -7667,7 +7529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="array" ref="A9:G9">Days+15+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43507</v>
@@ -7705,7 +7567,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43514</v>
@@ -7733,37 +7595,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="69"/>
+      <c r="G12" s="67"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43521</v>
@@ -7791,7 +7653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>48</v>
       </c>
@@ -7808,7 +7670,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -7819,7 +7681,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -7832,7 +7694,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="array" ref="A18:B18">Days+36+DATE(Calendar2Year,Calendar2MonthOption,1)-WEEKDAY(DATE(Calendar2Year,Calendar2MonthOption,1),WeekdayOption)</f>
         <v>43528</v>
@@ -7840,24 +7702,24 @@
       <c r="B18" s="11">
         <v>43529</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-    </row>
-    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.3">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="1:7" ht="69" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7870,147 +7732,147 @@
     <mergeCell ref="D12:D13"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G7 A9:G9 A11:G11 E8:G8 A12 A4:E5 A3:G3 F16:F17 A14:G14 A18:B18 A15 C15:D15 F15:G16">
-    <cfRule type="expression" dxfId="301" priority="34">
+    <cfRule type="expression" dxfId="299" priority="34">
       <formula>MONTH(A3)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="300" priority="33">
+    <cfRule type="expression" dxfId="298" priority="33">
       <formula>MONTH(A12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="299" priority="32">
+    <cfRule type="expression" dxfId="297" priority="32">
       <formula>MONTH(F8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="298" priority="31">
+    <cfRule type="expression" dxfId="296" priority="31">
       <formula>MONTH(G8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="expression" dxfId="297" priority="30">
+    <cfRule type="expression" dxfId="295" priority="30">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="296" priority="28">
+    <cfRule type="expression" dxfId="294" priority="28">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="295" priority="29">
+    <cfRule type="expression" dxfId="293" priority="29">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="294" priority="27">
+    <cfRule type="expression" dxfId="292" priority="27">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="293" priority="26">
+    <cfRule type="expression" dxfId="291" priority="26">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="292" priority="25">
+    <cfRule type="expression" dxfId="290" priority="25">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="291" priority="24">
+    <cfRule type="expression" dxfId="289" priority="24">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="290" priority="21">
+    <cfRule type="expression" dxfId="288" priority="21">
       <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="289" priority="20">
+    <cfRule type="expression" dxfId="287" priority="20">
       <formula>MONTH(A13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="288" priority="19">
+    <cfRule type="expression" dxfId="286" priority="19">
       <formula>MONTH(A6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="287" priority="18">
+    <cfRule type="expression" dxfId="285" priority="18">
       <formula>MONTH(C6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="286" priority="17">
+    <cfRule type="expression" dxfId="284" priority="17">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="285" priority="16">
+    <cfRule type="expression" dxfId="283" priority="16">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="284" priority="15">
+    <cfRule type="expression" dxfId="282" priority="15">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="283" priority="10">
+    <cfRule type="expression" dxfId="281" priority="10">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="282" priority="13">
+    <cfRule type="expression" dxfId="280" priority="13">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="281" priority="11">
+    <cfRule type="expression" dxfId="279" priority="11">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="280" priority="12">
+    <cfRule type="expression" dxfId="278" priority="12">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="279" priority="9">
+    <cfRule type="expression" dxfId="277" priority="9">
       <formula>MONTH(D17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="278" priority="8">
+    <cfRule type="expression" dxfId="276" priority="8">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="277" priority="7">
+    <cfRule type="expression" dxfId="275" priority="7">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="276" priority="4">
+    <cfRule type="expression" dxfId="274" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="275" priority="3">
+    <cfRule type="expression" dxfId="273" priority="3">
       <formula>MONTH(E17)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="274" priority="2">
+    <cfRule type="expression" dxfId="272" priority="2">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="273" priority="1">
+    <cfRule type="expression" dxfId="271" priority="1">
       <formula>MONTH(C10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8032,28 +7894,28 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar2Year,Calendar2MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar2Year,Calendar2MonthOption+1,1),"mmmm")</f>
         <v>March</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8088,7 +7950,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43521</v>
@@ -8112,7 +7974,7 @@
         <v>43527</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>48</v>
       </c>
@@ -8133,7 +7995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -8161,7 +8023,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+8+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43528</v>
@@ -8213,7 +8075,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+15+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43535</v>
@@ -8241,7 +8103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="26" t="s">
@@ -8252,7 +8114,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="array" ref="A12:G12">Days+22+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43542</v>
@@ -8280,35 +8142,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
+    <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="67"/>
       <c r="I13" s="10"/>
       <c r="J13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+    <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="array" ref="A15:G15">Days+29+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43549</v>
@@ -8336,7 +8198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>48</v>
       </c>
@@ -8353,7 +8215,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="24"/>
@@ -8364,7 +8226,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -8377,7 +8239,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="array" ref="A19:B19">Days+36+DATE(Calendar3Year,Calendar3MonthOption,1)-WEEKDAY(DATE(Calendar3Year,Calendar3MonthOption,1),WeekdayOption)</f>
         <v>43556</v>
@@ -8385,11 +8247,11 @@
       <c r="B19" s="11">
         <v>43557</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -8398,11 +8260,11 @@
       <c r="B20" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8416,142 +8278,142 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:G8 A10:G10 A12:G12 A15:G15 A13:D13 F16:G17 A16:D16 A19:B19 A3:G3">
-    <cfRule type="expression" dxfId="272" priority="30">
+    <cfRule type="expression" dxfId="270" priority="30">
       <formula>MONTH(A3)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="271" priority="28">
+    <cfRule type="expression" dxfId="269" priority="28">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="270" priority="29">
+    <cfRule type="expression" dxfId="268" priority="29">
       <formula>MONTH(E13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="269" priority="27">
+    <cfRule type="expression" dxfId="267" priority="27">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="268" priority="23">
+    <cfRule type="expression" dxfId="266" priority="23">
       <formula>MONTH(E17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="267" priority="25">
+    <cfRule type="expression" dxfId="265" priority="25">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="expression" dxfId="266" priority="24">
+    <cfRule type="expression" dxfId="264" priority="24">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 C4:D4">
-    <cfRule type="expression" dxfId="265" priority="22">
+    <cfRule type="expression" dxfId="263" priority="22">
       <formula>MONTH(A4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="264" priority="21">
+    <cfRule type="expression" dxfId="262" priority="21">
       <formula>MONTH(D4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="263" priority="19">
+    <cfRule type="expression" dxfId="261" priority="19">
       <formula>MONTH(D5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="262" priority="18">
+    <cfRule type="expression" dxfId="260" priority="18">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="261" priority="16">
+    <cfRule type="expression" dxfId="259" priority="16">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="260" priority="17">
+    <cfRule type="expression" dxfId="258" priority="17">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="259" priority="15">
+    <cfRule type="expression" dxfId="257" priority="15">
       <formula>MONTH(A17)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="258" priority="14">
+    <cfRule type="expression" dxfId="256" priority="14">
       <formula>MONTH(C17)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="257" priority="13">
+    <cfRule type="expression" dxfId="255" priority="13">
       <formula>MONTH(D17)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="256" priority="12">
+    <cfRule type="expression" dxfId="254" priority="12">
       <formula>MONTH(E8)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="255" priority="11">
+    <cfRule type="expression" dxfId="253" priority="11">
       <formula>MONTH(D6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="254" priority="10">
+    <cfRule type="expression" dxfId="252" priority="10">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="253" priority="9">
+    <cfRule type="expression" dxfId="251" priority="9">
       <formula>MONTH(D6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="252" priority="8">
+    <cfRule type="expression" dxfId="250" priority="8">
       <formula>MONTH(D18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="251" priority="7">
+    <cfRule type="expression" dxfId="249" priority="7">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="250" priority="6">
+    <cfRule type="expression" dxfId="248" priority="6">
       <formula>MONTH(D18)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="249" priority="5">
+    <cfRule type="expression" dxfId="247" priority="5">
       <formula>MONTH(E6)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="248" priority="4">
+    <cfRule type="expression" dxfId="246" priority="4">
       <formula>MONTH(E18)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="247" priority="3">
+    <cfRule type="expression" dxfId="245" priority="3">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="246" priority="2">
+    <cfRule type="expression" dxfId="244" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="245" priority="1">
+    <cfRule type="expression" dxfId="243" priority="1">
       <formula>MONTH(A9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8573,28 +8435,28 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar3Year,Calendar3MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar3Year,Calendar3MonthOption+1,1),"mmmm")</f>
         <v>April</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8629,7 +8491,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43556</v>
@@ -8653,7 +8515,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>55</v>
       </c>
@@ -8673,7 +8535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="array" ref="A5:G5">Days+8+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43563</v>
@@ -8711,12 +8573,12 @@
       <c r="E6" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="G6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="array" ref="A7:G7">Days+15+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43570</v>
@@ -8749,34 +8611,34 @@
         <v>99</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="57"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
       <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43577</v>
@@ -8800,7 +8662,7 @@
         <v>43583</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>48</v>
       </c>
@@ -8821,7 +8683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
@@ -8849,7 +8711,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar4Year,Calendar4MonthOption,1)-WEEKDAY(DATE(Calendar4Year,Calendar4MonthOption,1),WeekdayOption)</f>
         <v>43584</v>
@@ -8877,7 +8739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="69" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>57</v>
       </c>
@@ -8896,11 +8758,11 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8911,102 +8773,102 @@
     <mergeCell ref="C8:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:G5 A7:G7 A10:G10 F11:G12 A3:G3 A14:G14">
-    <cfRule type="expression" dxfId="244" priority="27">
+    <cfRule type="expression" dxfId="242" priority="27">
       <formula>MONTH(A3)&lt;&gt;Calendar4MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="243" priority="25">
+    <cfRule type="expression" dxfId="241" priority="25">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="242" priority="26">
+    <cfRule type="expression" dxfId="240" priority="26">
       <formula>MONTH(E8)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="241" priority="14">
+    <cfRule type="expression" dxfId="239" priority="14">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:D11">
-    <cfRule type="expression" dxfId="240" priority="22">
+    <cfRule type="expression" dxfId="238" priority="22">
       <formula>MONTH(A11)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="239" priority="21">
+    <cfRule type="expression" dxfId="237" priority="21">
       <formula>MONTH(D11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="238" priority="17">
+    <cfRule type="expression" dxfId="236" priority="17">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="237" priority="19">
+    <cfRule type="expression" dxfId="235" priority="19">
       <formula>MONTH(E11)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="236" priority="18">
+    <cfRule type="expression" dxfId="234" priority="18">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="235" priority="16">
+    <cfRule type="expression" dxfId="233" priority="16">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="234" priority="15">
+    <cfRule type="expression" dxfId="232" priority="15">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="233" priority="11">
+    <cfRule type="expression" dxfId="231" priority="11">
       <formula>MONTH(D13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="232" priority="10">
+    <cfRule type="expression" dxfId="230" priority="10">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="231" priority="9">
+    <cfRule type="expression" dxfId="229" priority="9">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="230" priority="7">
+    <cfRule type="expression" dxfId="228" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="229" priority="4">
+    <cfRule type="expression" dxfId="227" priority="4">
       <formula>MONTH(E6)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="228" priority="5">
+    <cfRule type="expression" dxfId="226" priority="5">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="227" priority="3">
+    <cfRule type="expression" dxfId="225" priority="3">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="226" priority="2">
+    <cfRule type="expression" dxfId="224" priority="2">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="223" priority="1">
       <formula>MONTH(C15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9027,28 +8889,28 @@
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar4Year,Calendar4MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar4Year,Calendar4MonthOption+1,1),"mmmm")</f>
         <v>May</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9083,7 +8945,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43584</v>
@@ -9107,7 +8969,7 @@
         <v>43590</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>57</v>
       </c>
@@ -9128,7 +8990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="42.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="E5" s="34" t="s">
         <v>92</v>
@@ -9140,7 +9002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43591</v>
@@ -9169,10 +9031,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="59" t="s">
         <v>99</v>
       </c>
@@ -9181,7 +9043,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43598</v>
@@ -9210,38 +9072,38 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:10" ht="57" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="G9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
       <c r="I10" s="20"/>
       <c r="J10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43605</v>
@@ -9265,8 +9127,8 @@
         <v>43611</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:10" ht="84.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9281,7 +9143,7 @@
       <c r="E12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="29"/>
       <c r="I12" s="30"/>
       <c r="J12" t="s">
@@ -9289,21 +9151,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="25"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="75"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="29"/>
       <c r="I13" s="10"/>
       <c r="J13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar5Year,Calendar5MonthOption,1)-WEEKDAY(DATE(Calendar5Year,Calendar5MonthOption,1),WeekdayOption)</f>
         <v>43612</v>
@@ -9327,7 +9189,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9199,7 @@
       <c r="C15" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="23" t="s">
         <v>45</v>
       </c>
@@ -9348,10 +9210,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="23"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
@@ -9372,137 +9234,137 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A14:G14 F12:G12 A3:G3 G13 A15:B15 D15:G15 A4 C4:G4">
-    <cfRule type="expression" dxfId="224" priority="36">
+    <cfRule type="expression" dxfId="222" priority="36">
       <formula>MONTH(A3)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="223" priority="35">
+    <cfRule type="expression" dxfId="221" priority="35">
       <formula>MONTH(A15)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="222" priority="34">
+    <cfRule type="expression" dxfId="220" priority="34">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="221" priority="33">
+    <cfRule type="expression" dxfId="219" priority="33">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="220" priority="22">
+    <cfRule type="expression" dxfId="218" priority="22">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="219" priority="30">
+    <cfRule type="expression" dxfId="217" priority="30">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="218" priority="29">
+    <cfRule type="expression" dxfId="216" priority="29">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="217" priority="25">
+    <cfRule type="expression" dxfId="215" priority="25">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16 E5">
-    <cfRule type="expression" dxfId="216" priority="27">
+    <cfRule type="expression" dxfId="214" priority="27">
       <formula>MONTH(E5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="215" priority="26">
+    <cfRule type="expression" dxfId="213" priority="26">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="214" priority="17">
+    <cfRule type="expression" dxfId="212" priority="17">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="213" priority="20">
+    <cfRule type="expression" dxfId="211" priority="20">
       <formula>MONTH(B15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="212" priority="19">
+    <cfRule type="expression" dxfId="210" priority="19">
       <formula>MONTH(B15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="211" priority="18">
+    <cfRule type="expression" dxfId="209" priority="18">
       <formula>MONTH(B15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="210" priority="16">
+    <cfRule type="expression" dxfId="208" priority="16">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="209" priority="15">
+    <cfRule type="expression" dxfId="207" priority="15">
       <formula>MONTH(A16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="208" priority="14">
+    <cfRule type="expression" dxfId="206" priority="14">
       <formula>MONTH(B16)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="207" priority="13">
+    <cfRule type="expression" dxfId="205" priority="13">
       <formula>MONTH(B16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="206" priority="12">
+    <cfRule type="expression" dxfId="204" priority="12">
       <formula>MONTH(B16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="205" priority="11">
+    <cfRule type="expression" dxfId="203" priority="11">
       <formula>MONTH(B16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="204" priority="10">
+    <cfRule type="expression" dxfId="202" priority="10">
       <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="203" priority="9">
+    <cfRule type="expression" dxfId="201" priority="9">
       <formula>MONTH(I13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="202" priority="6">
+    <cfRule type="expression" dxfId="200" priority="6">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="199" priority="4">
       <formula>MONTH(C10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="200" priority="3">
+    <cfRule type="expression" dxfId="198" priority="3">
       <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="199" priority="2">
+    <cfRule type="expression" dxfId="197" priority="2">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="198" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>MONTH(C15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9524,28 +9386,28 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar5Year,Calendar5MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar5Year,Calendar5MonthOption+1,1),"mmmm")</f>
         <v>June</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9580,7 +9442,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43612</v>
@@ -9611,8 +9473,8 @@
       <c r="B4" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="93"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="23" t="s">
         <v>45</v>
       </c>
@@ -9623,11 +9485,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="22" t="s">
         <v>43</v>
       </c>
@@ -9638,7 +9500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43619</v>
@@ -9662,7 +9524,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="90.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="90.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>59</v>
       </c>
@@ -9683,7 +9545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43626</v>
@@ -9708,16 +9570,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>16</v>
@@ -9730,7 +9592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f t="array" ref="A10:G10">Days+22+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43633</v>
@@ -9755,42 +9617,42 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="69"/>
+      <c r="G11" s="67"/>
       <c r="I11" s="30"/>
       <c r="J11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="array" ref="A13:G13">Days+29+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43640</v>
@@ -9815,7 +9677,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="59" t="s">
@@ -9830,44 +9692,44 @@
       <c r="E14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="29"/>
       <c r="I14" s="28"/>
       <c r="J14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="96" t="s">
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="93"/>
+      <c r="B15" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="25"/>
       <c r="E15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="89"/>
+    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="94"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="16"/>
       <c r="I16" s="60"/>
       <c r="J16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="array" ref="A17:B17">Days+36+DATE(Calendar6Year,Calendar6MonthOption,1)-WEEKDAY(DATE(Calendar6Year,Calendar6MonthOption,1),WeekdayOption)</f>
         <v>43647</v>
@@ -9875,25 +9737,30 @@
       <c r="B17" s="11">
         <v>43648</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-    </row>
-    <row r="18" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="91"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+    </row>
+    <row r="18" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="32"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C17:G17"/>
@@ -9902,184 +9769,179 @@
     <mergeCell ref="F11:G12"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="B15:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A10:G10 A13:G13 F14:G14 A3:G3 A17:B17 G15 F4:G4">
-    <cfRule type="expression" dxfId="197" priority="44">
+    <cfRule type="expression" dxfId="195" priority="44">
       <formula>MONTH(A3)&lt;&gt;Calendar6MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="196" priority="43">
+    <cfRule type="expression" dxfId="194" priority="43">
       <formula>MONTH(F9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="195" priority="42">
+    <cfRule type="expression" dxfId="193" priority="42">
       <formula>MONTH(G9)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="194" priority="41">
+    <cfRule type="expression" dxfId="192" priority="41">
       <formula>MONTH(E11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="193" priority="40">
+    <cfRule type="expression" dxfId="191" priority="40">
       <formula>MONTH(E12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="192" priority="29">
+    <cfRule type="expression" dxfId="190" priority="29">
       <formula>MONTH(D15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="191" priority="37">
+    <cfRule type="expression" dxfId="189" priority="37">
       <formula>MONTH(C14)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="190" priority="36">
+    <cfRule type="expression" dxfId="188" priority="36">
       <formula>MONTH(D14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="189" priority="32">
+    <cfRule type="expression" dxfId="187" priority="32">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="188" priority="34">
+    <cfRule type="expression" dxfId="186" priority="34">
       <formula>MONTH(E14)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="expression" dxfId="187" priority="33">
+    <cfRule type="expression" dxfId="185" priority="33">
       <formula>MONTH(E14)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="expression" dxfId="186" priority="26">
+    <cfRule type="expression" dxfId="184" priority="26">
       <formula>MONTH(A18)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="185" priority="25">
+    <cfRule type="expression" dxfId="183" priority="25">
       <formula>MONTH(D16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="184" priority="24">
+    <cfRule type="expression" dxfId="182" priority="24">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="183" priority="23">
+    <cfRule type="expression" dxfId="181" priority="23">
       <formula>MONTH(D16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 D4:E4">
-    <cfRule type="expression" dxfId="182" priority="22">
+    <cfRule type="expression" dxfId="180" priority="22">
       <formula>MONTH(A4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="181" priority="21">
+    <cfRule type="expression" dxfId="179" priority="21">
       <formula>MONTH(A4)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="180" priority="18">
+    <cfRule type="expression" dxfId="178" priority="18">
       <formula>MONTH(E5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="179" priority="20">
+    <cfRule type="expression" dxfId="177" priority="20">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="expression" dxfId="178" priority="19">
+    <cfRule type="expression" dxfId="176" priority="19">
       <formula>MONTH(E4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="177" priority="17">
+    <cfRule type="expression" dxfId="175" priority="17">
       <formula>MONTH(B4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="176" priority="16">
+    <cfRule type="expression" dxfId="174" priority="16">
       <formula>MONTH(B4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="175" priority="15">
+    <cfRule type="expression" dxfId="173" priority="15">
       <formula>MONTH(B4)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="174" priority="14">
+    <cfRule type="expression" dxfId="172" priority="14">
       <formula>MONTH(A5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="173" priority="13">
+    <cfRule type="expression" dxfId="171" priority="13">
       <formula>MONTH(A5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="172" priority="12">
+    <cfRule type="expression" dxfId="170" priority="12">
       <formula>MONTH(B5)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="171" priority="11">
+    <cfRule type="expression" dxfId="169" priority="11">
       <formula>MONTH(B5)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="170" priority="10">
+    <cfRule type="expression" dxfId="168" priority="10">
       <formula>MONTH(B5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="169" priority="9">
+    <cfRule type="expression" dxfId="167" priority="9">
       <formula>MONTH(B5)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="168" priority="7">
+    <cfRule type="expression" dxfId="166" priority="7">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="167" priority="5">
+    <cfRule type="expression" dxfId="165" priority="5">
       <formula>MONTH(E7)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="164" priority="4">
       <formula>MONTH(C7)&lt;&gt;Calendar5MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="165" priority="3">
+    <cfRule type="expression" dxfId="163" priority="3">
       <formula>MONTH(E16)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="164" priority="2">
+    <cfRule type="expression" dxfId="162" priority="2">
       <formula>MONTH(C11)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="163" priority="1">
+    <cfRule type="expression" dxfId="161" priority="1">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10100,28 +9962,28 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.9">
       <c r="A1" s="1">
         <f>YEAR(DATE(Calendar6Year,Calendar6MonthOption+1,1))</f>
         <v>2019</v>
       </c>
-      <c r="B1" s="67" t="str">
+      <c r="B1" s="65" t="str">
         <f>TEXT(DATE(Calendar6Year,Calendar6MonthOption+1,1),"mmmm")</f>
         <v>July</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10156,7 +10018,7 @@
         <v>SUNDAY</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f t="array" ref="A3:G3">Days+1+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43647</v>
@@ -10184,8 +10046,8 @@
       <c r="A4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="95" t="s">
         <v>102</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -10203,8 +10065,8 @@
     </row>
     <row r="5" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="10"/>
       <c r="E5" s="23" t="s">
         <v>31</v>
@@ -10216,7 +10078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f t="array" ref="A6:G6">Days+8+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43654</v>
@@ -10241,16 +10103,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -10259,7 +10121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f t="array" ref="A8:G8">Days+15+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43661</v>
@@ -10283,39 +10145,39 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
+    <row r="9" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="array" ref="A11:G11">Days+22+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43668</v>
@@ -10343,8 +10205,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+    <row r="12" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="93" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -10359,25 +10221,25 @@
       <c r="E12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="29"/>
       <c r="I12" s="10"/>
       <c r="J12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="97" t="s">
+    <row r="13" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="25"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="75"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="array" ref="A14:G14">Days+29+DATE(Calendar7Year,Calendar7MonthOption,1)-WEEKDAY(DATE(Calendar7Year,Calendar7MonthOption,1),WeekdayOption)</f>
         <v>43675</v>
@@ -10405,13 +10267,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="63.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="23" t="s">
         <v>45</v>
       </c>
@@ -10422,13 +10284,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="56.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
@@ -10437,6 +10299,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -10444,151 +10313,144 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:G6 A8:G8 A11:G11 A9 F12:G12 A4 A3:G3 G13 A14:G14 A15:B15 E15:G15 D4">
-    <cfRule type="expression" dxfId="162" priority="42">
+    <cfRule type="expression" dxfId="160" priority="42">
       <formula>MONTH(A3)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="161" priority="41">
+    <cfRule type="expression" dxfId="159" priority="41">
       <formula>MONTH(D4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="160" priority="40">
+    <cfRule type="expression" dxfId="158" priority="40">
       <formula>MONTH(E9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="159" priority="39">
+    <cfRule type="expression" dxfId="157" priority="39">
       <formula>MONTH(E10)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="158" priority="28">
+    <cfRule type="expression" dxfId="156" priority="28">
       <formula>MONTH(D13)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="157" priority="36">
+    <cfRule type="expression" dxfId="155" priority="36">
       <formula>MONTH(C12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="156" priority="35">
+    <cfRule type="expression" dxfId="154" priority="35">
       <formula>MONTH(D12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="155" priority="31">
+    <cfRule type="expression" dxfId="153" priority="31">
       <formula>MONTH(E16)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="154" priority="33">
+    <cfRule type="expression" dxfId="152" priority="33">
       <formula>MONTH(E15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="153" priority="32">
+    <cfRule type="expression" dxfId="151" priority="32">
       <formula>MONTH(E15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="152" priority="26">
+    <cfRule type="expression" dxfId="150" priority="26">
       <formula>MONTH(B9)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="151" priority="20">
+    <cfRule type="expression" dxfId="149" priority="20">
       <formula>MONTH(D5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="150" priority="23">
+    <cfRule type="expression" dxfId="148" priority="23">
       <formula>MONTH(A5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="149" priority="21">
+    <cfRule type="expression" dxfId="147" priority="21">
       <formula>MONTH(D5)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="148" priority="19">
+    <cfRule type="expression" dxfId="146" priority="19">
       <formula>MONTH(A15)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="147" priority="18">
+    <cfRule type="expression" dxfId="145" priority="18">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="146" priority="17">
+    <cfRule type="expression" dxfId="144" priority="17">
       <formula>MONTH(A15)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="145" priority="16">
+    <cfRule type="expression" dxfId="143" priority="16">
       <formula>MONTH(E13)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="144" priority="15">
+    <cfRule type="expression" dxfId="142" priority="15">
       <formula>MONTH(C15)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="143" priority="14">
+    <cfRule type="expression" dxfId="141" priority="14">
       <formula>MONTH(D15)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="142" priority="12">
+    <cfRule type="expression" dxfId="140" priority="12">
       <formula>MONTH(I12)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="141" priority="6">
+    <cfRule type="expression" dxfId="139" priority="6">
       <formula>MONTH(E12)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="140" priority="8">
+    <cfRule type="expression" dxfId="138" priority="8">
       <formula>MONTH(E4)&lt;&gt;Calendar2MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="139" priority="5">
+    <cfRule type="expression" dxfId="137" priority="5">
       <formula>MONTH(A12)&lt;&gt;Calendar3MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="138" priority="4">
+    <cfRule type="expression" dxfId="136" priority="4">
       <formula>MONTH(C9)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="137" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>MONTH(B4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="134" priority="2">
       <formula>MONTH(C4)&lt;&gt;Calendar7MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="135" priority="1">
+    <cfRule type="expression" dxfId="133" priority="1">
       <formula>MONTH(E7)&lt;&gt;Calendar1MonthOption</formula>
     </cfRule>
   </conditionalFormatting>
